--- a/AAPL/AAPL_PFV (Quarterly).xlsx
+++ b/AAPL/AAPL_PFV (Quarterly).xlsx
@@ -5,22 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanayawakyea/Desktop/IPO Candy - ABNB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nanayawakyea/Desktop/PFV-DCF-Valuations/AAPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9DECB8-5E6E-3D4F-8CB5-13309D9F3894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1EAD4-16A8-9D40-AF18-8259852460EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{63EC129F-FAE3-7B4F-8024-D78F97EC6E89}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{63EC129F-FAE3-7B4F-8024-D78F97EC6E89}"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL" sheetId="2" r:id="rId1"/>
     <sheet name="ABNB" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">AAPL!$J$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">AAPL!$J$4:$M$4</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">AAPL!$J$25:$M$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">AAPL!$J$4:$M$4</definedName>
     <definedName name="CIQWBGuid" hidden="1">"60aadba8-9c5e-41de-9443-b6070dc7b523"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -91,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="132">
   <si>
     <t>Price</t>
   </si>
@@ -357,9 +353,6 @@
     <t>Gross Profits %</t>
   </si>
   <si>
-    <t>Rev by Product (billions)</t>
-  </si>
-  <si>
     <t>Rev by Geo (billions)</t>
   </si>
   <si>
@@ -369,37 +362,10 @@
     <t>Rest of Asia Pacifc Rev</t>
   </si>
   <si>
-    <t>Add Operating</t>
-  </si>
-  <si>
     <t>iPad Rev</t>
   </si>
   <si>
-    <t>Q1 December Prev YR</t>
-  </si>
-  <si>
-    <t>Iohone sales growth or shrinkage  are a dterming factor</t>
-  </si>
-  <si>
     <t>2022(6Mth End)</t>
-  </si>
-  <si>
-    <t>(on track to growing rev by 8% a year)</t>
-  </si>
-  <si>
-    <t>(products movign with iphones)</t>
-  </si>
-  <si>
-    <t>(as they grow operation/profits  rev and cost increase in tandem)</t>
-  </si>
-  <si>
-    <t>(management succesfully shrank operations decreasin both rev and cost in response to covid didwell to maintain 38% although historic fall in yoy gross profit  rate from 10 to abt 2% q2)</t>
-  </si>
-  <si>
-    <t>(No new iphone in Q4)</t>
-  </si>
-  <si>
-    <t>(I think AAPL can average 8 percent growth rate in revenues per year)</t>
   </si>
   <si>
     <t>R&amp;D</t>
@@ -438,12 +404,6 @@
     <t>Other Income/(expense), net</t>
   </si>
   <si>
-    <t>(WOW those stimulus checks)</t>
-  </si>
-  <si>
-    <t>2022 Projected</t>
-  </si>
-  <si>
     <t>2023 Proj</t>
   </si>
   <si>
@@ -470,12 +430,66 @@
   <si>
     <t>Debt (B)</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2022 Proj</t>
+  </si>
+  <si>
+    <t>Top Line (billions)</t>
+  </si>
+  <si>
+    <t>Q1 December Prev YR (billions)</t>
+  </si>
+  <si>
+    <t>Rev by Product (unhide)</t>
+  </si>
+  <si>
+    <t>Shares (B)</t>
+  </si>
+  <si>
+    <t>(I think AAPL can average 8 percent growth rate in revenues per year but will have to consider modelling through a possible recession)</t>
+  </si>
+  <si>
+    <t>(management succesfully shrank operations decreasing both rev and cost in response to covid; they did well to maintain 38% GP througout covid and hopefully indicate they can maintain 38% in a full blown recession)</t>
+  </si>
+  <si>
+    <t>(No new iphone in Q4  2020 and covid in q2 2022 means they had little to no YoY growth in those quarters)</t>
+  </si>
+  <si>
+    <t>(The fed printing all that money and covid relief checks really drove up economic activity and consumer spending; crazy YoY OI growth!)</t>
+  </si>
+  <si>
+    <t>(Consider AAPLs share repurchasing activity ask Mr Tuttle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(product revenue growth greatly determined by iphone revenue growth - makes sense) </t>
+  </si>
+  <si>
+    <t>(Where does debt come in? Net cash position? ask Mr Tuttle)</t>
+  </si>
+  <si>
+    <t>(have to segment these further later down the line)</t>
+  </si>
+  <si>
+    <t>(What does PS at PT indicate ask Mr Tuttle)</t>
+  </si>
+  <si>
+    <t>(2021 Product and Total Rev QoQ growth show similar patters than confirm AAPL's earnings cycle as being strongest in Q1 when people buy new iphones during the holiday period)</t>
+  </si>
+  <si>
+    <t>(It's nice how the Services Rev doesn't follow that patttern acting as a hedge during other part of the year; would like to see them increase Services Rev/Total Rev with time)</t>
+  </si>
+  <si>
+    <t>(I would attribute record YoY growth rates in revenue for 2021 to again fed printing more money and in Q4 2021 they announced a new iphone not having released one at the same time last year)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_(&quot;GH₵&quot;* #,##0.00_);_(&quot;GH₵&quot;* \(#,##0.00\);_(&quot;GH₵&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -487,10 +501,9 @@
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="172" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00000000000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,14 +582,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Cantarell"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Cantarell"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -599,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -749,6 +769,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,7 +867,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -917,25 +1027,14 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="172" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,35 +1042,130 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1028,7 +1222,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Product Rev QoQ</a:t>
+              <a:t>2021 Product Rev QoQ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -1088,12 +1282,43 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>AAPL!$J$4:$M$4</c:f>
+              <c:f>AAPL!$J$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>AAPL!$J$25:$M$25</c:f>
+              <c:f>AAPL!$J$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.91017964071856317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.24033437826541273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12104539202200831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0344287949921821E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1458,7 +1683,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3873203251067391E-2"/>
+          <c:y val="0.26368755829146528"/>
+          <c:w val="0.84700378422195333"/>
+          <c:h val="0.58263937758478868"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1478,7 +1713,23 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>AAPL!$J$28:$M$28</c:f>
+              <c:f>AAPL!$J$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2191780821918276E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.962025316455682E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5502958579881741E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.000000000000057E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -1693,7 +1944,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Total Rev</a:t>
+              <a:t>2021Total Rev</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
@@ -1753,7 +2004,23 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>AAPL!$J$55:$M$55</c:f>
+              <c:f>AAPL!$J$54:$M$54</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.72179289026275151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1956912028725315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.1517857142857026E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4570024570024569E-2</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -3579,16 +3846,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>696146</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99781</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>382970</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>78353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>52781</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>89323</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>456406</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3615,16 +3882,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>738940</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94909</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>363408</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>22736</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>140480</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>396874</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3651,16 +3918,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>85262</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>20202</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>771710</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>272026</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>84450</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>773907</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3999,31 +4266,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C9B030-6029-4447-BB99-7A7F8376F45B}">
-  <dimension ref="B1:Z174"/>
+  <dimension ref="B1:AG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="207" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="64" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" hidden="1" customWidth="1"/>
-    <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="16" width="10.83203125" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
       <c r="E1" s="83"/>
       <c r="F1" s="84"/>
       <c r="G1" s="83"/>
@@ -4033,19 +4302,17 @@
       <c r="N1" s="83"/>
       <c r="O1" s="83"/>
       <c r="P1" s="83"/>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="123">
         <v>148.47</v>
       </c>
     </row>
     <row r="2" spans="2:23">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -4055,21 +4322,19 @@
       <c r="N2" s="83"/>
       <c r="O2" s="83"/>
       <c r="P2" s="83"/>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4">
-        <f>Y134</f>
-        <v>105.07580337213949</v>
+      <c r="R2" s="123">
+        <f>W72</f>
+        <v>104.7554503130781</v>
       </c>
     </row>
     <row r="3" spans="2:23">
-      <c r="B3" s="7">
+      <c r="B3" s="124">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>44766</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+        <v>44768</v>
+      </c>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
@@ -4079,1657 +4344,1904 @@
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="113">
-        <f>Y135</f>
-        <v>-0.31808810842923302</v>
+      <c r="R3" s="125">
+        <f>W73</f>
+        <v>-0.32016710809865601</v>
       </c>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="88">
+      <c r="B4" s="124"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+    </row>
+    <row r="5" spans="2:23">
+      <c r="B5" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="128">
         <v>2019</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D5" s="128">
         <v>2020</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I5" s="128">
         <v>2021</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="88" t="s">
+      <c r="L5" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="88" t="s">
+      <c r="M5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="88" t="s">
+      <c r="N5" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P5" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="R4" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="S4" s="83" t="s">
+      <c r="Q5" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="S5" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="T5" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="U5" s="128" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
+      <c r="B6" s="85"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="T4" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="U4" s="101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23">
-      <c r="B5" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="83"/>
-    </row>
-    <row r="6" spans="2:23">
-      <c r="B6" s="87"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="83"/>
-    </row>
-    <row r="7" spans="2:23">
-      <c r="B7" s="89" t="s">
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="117"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C8" s="25">
         <v>142.4</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D8" s="25">
         <v>137.80000000000001</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E8" s="25">
         <v>55.9</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F8" s="25">
         <v>29</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G8" s="25">
         <v>26.4</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H8" s="104">
         <f>26.4</f>
         <v>26.4</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I8" s="25">
         <v>192</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J8" s="25">
         <v>65.599999999999994</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K8" s="25">
         <v>47.9</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L8" s="25">
         <v>39.6</v>
       </c>
-      <c r="M7" s="31">
-        <f>I7-J7-K7-L7</f>
+      <c r="M8" s="25">
+        <f>I8-J8-K8-L8</f>
         <v>38.9</v>
       </c>
-      <c r="N7" s="96">
-        <f>SUM(O7,P7)</f>
+      <c r="N8" s="104">
+        <f>SUM(O8,P8)</f>
         <v>122.19999999999999</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O8" s="25">
         <v>71.599999999999994</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P8" s="25">
         <v>50.6</v>
       </c>
-      <c r="Q7" s="83"/>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="B8" s="89" t="s">
+      <c r="Q8" s="105"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="106"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="107"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="90">
-        <f xml:space="preserve"> (D7 - C7)/C7</f>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95">
+        <f xml:space="preserve"> (D8 - C8)/C8</f>
         <v>-3.2303370786516815E-2</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E9" s="95">
         <v>0.08</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F9" s="95">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G8" s="90">
+      <c r="G9" s="95">
         <v>0.02</v>
       </c>
-      <c r="H8" s="90">
+      <c r="H9" s="95">
         <v>-0.21</v>
       </c>
-      <c r="I8" s="90">
-        <f xml:space="preserve"> (I7 - D7)/D7</f>
+      <c r="I9" s="95">
+        <f xml:space="preserve"> (I8 - D8)/D8</f>
         <v>0.39332365747460074</v>
       </c>
-      <c r="J8" s="90">
-        <f>(J7-E7)/E7</f>
+      <c r="J9" s="95">
+        <f>(J8-E8)/E8</f>
         <v>0.17352415026833623</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K9" s="95">
         <v>0.66</v>
       </c>
-      <c r="L8" s="90">
-        <f>(L7-G7)/G7</f>
+      <c r="L9" s="95">
+        <f>(L8-G8)/G8</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="M8" s="90">
-        <f>(M7-H7)/H7</f>
+      <c r="M9" s="95">
+        <f>(M8-H8)/H8</f>
         <v>0.47348484848484851</v>
       </c>
-      <c r="N8" s="98">
-        <f>(N7-J7-K7)/(J7+K7)</f>
+      <c r="N9" s="96">
+        <f>(N8-J8-K8)/(J8+K8)</f>
         <v>7.6651982378854594E-2</v>
       </c>
-      <c r="O8" s="90">
-        <f>(O7-J7)/J7</f>
+      <c r="O9" s="95">
+        <f>(O8-J8)/J8</f>
         <v>9.1463414634146353E-2</v>
       </c>
-      <c r="P8" s="90">
+      <c r="P9" s="95">
         <f>0.05</f>
         <v>0.05</v>
       </c>
-      <c r="Q8" s="83"/>
-    </row>
-    <row r="9" spans="2:23">
-      <c r="B9" s="89" t="s">
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="111"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="90">
-        <f>(J7-H7)/H7</f>
+      <c r="C10" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="95">
+        <f>(J8-H8)/H8</f>
         <v>1.4848484848484849</v>
       </c>
-      <c r="K9" s="98">
-        <f>(K7-J7)/J7</f>
+      <c r="K10" s="96">
+        <f>(K8-J8)/J8</f>
         <v>-0.26981707317073167</v>
       </c>
-      <c r="L9" s="98">
-        <f>(L7-K7)/K7</f>
+      <c r="L10" s="96">
+        <f>(L8-K8)/K8</f>
         <v>-0.17327766179540705</v>
       </c>
-      <c r="M9" s="98">
-        <f>(M7-L7)/L7</f>
+      <c r="M10" s="96">
+        <f>(M8-L8)/L8</f>
         <v>-1.7676767676767749E-2</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="90">
-        <f>(O7-M7)/M7</f>
+      <c r="N10" s="93"/>
+      <c r="O10" s="95">
+        <f>(O8-M8)/M8</f>
         <v>0.84061696658097673</v>
       </c>
-      <c r="P9" s="98">
-        <f>(P7-O7)/O7</f>
+      <c r="P10" s="96">
+        <f>(P8-O8)/O8</f>
         <v>-0.2932960893854748</v>
       </c>
-      <c r="Q9" s="83"/>
-    </row>
-    <row r="10" spans="2:23">
-      <c r="B10" s="89" t="s">
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="111"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C11" s="136">
         <v>25.7</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D11" s="136">
         <v>28.6</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E11" s="136">
         <v>7.2</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F11" s="136">
         <v>5.3</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G11" s="136">
         <v>7.1</v>
       </c>
-      <c r="H10" s="96">
-        <f>D10-E10-F10-G10</f>
+      <c r="H11" s="92">
+        <f>D11-E11-F11-G11</f>
         <v>9.0000000000000018</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I11" s="136">
         <v>35.200000000000003</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J11" s="136">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K11" s="136">
         <v>9.1</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L11" s="136">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M10" s="31">
-        <f>I10-J10-K10-L10</f>
+      <c r="M11" s="136">
+        <f>I11-J11-K11-L11</f>
         <v>9.2000000000000064</v>
       </c>
-      <c r="N10" s="96">
-        <f>SUM(O10,P10)</f>
+      <c r="N11" s="92">
+        <f>SUM(O11,P11)</f>
         <v>21.3</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O11" s="136">
         <v>10.9</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P11" s="136">
         <v>10.4</v>
       </c>
-      <c r="Q10" s="83"/>
-    </row>
-    <row r="11" spans="2:23">
-      <c r="B11" s="89" t="s">
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="94"/>
+      <c r="U11" s="111"/>
+      <c r="W11" s="155" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="90">
-        <f xml:space="preserve"> (D10 - C10)/C10</f>
+      <c r="C12" s="93"/>
+      <c r="D12" s="95">
+        <f xml:space="preserve"> (D11 - C11)/C11</f>
         <v>0.11284046692607012</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E12" s="95">
         <v>-0.03</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F12" s="95">
         <v>-0.03</v>
       </c>
-      <c r="G11" s="90">
+      <c r="G12" s="95">
         <v>0.22</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H12" s="95">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I11" s="90">
-        <f xml:space="preserve"> (I10 - D10)/D10</f>
+      <c r="I12" s="95">
+        <f xml:space="preserve"> (I11 - D11)/D11</f>
         <v>0.23076923076923081</v>
       </c>
-      <c r="J11" s="90">
-        <f>(J10-E10)/E10</f>
+      <c r="J12" s="95">
+        <f>(J11-E11)/E11</f>
         <v>0.2083333333333332</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K12" s="95">
         <v>0.7</v>
       </c>
-      <c r="L11" s="90">
-        <f>(L10-G10)/G10</f>
+      <c r="L12" s="95">
+        <f>(L11-G11)/G11</f>
         <v>0.15492957746478869</v>
       </c>
-      <c r="M11" s="90">
-        <f>(M10-H10)/H10</f>
+      <c r="M12" s="95">
+        <f>(M11-H11)/H11</f>
         <v>2.222222222222273E-2</v>
       </c>
-      <c r="N11" s="98">
-        <f>(N10-J10-K10)/(J10+K10)</f>
+      <c r="N12" s="96">
+        <f>(N11-J11-K11)/(J11+K11)</f>
         <v>0.19662921348314619</v>
       </c>
-      <c r="O11" s="90">
-        <f>(O10-J10)/J10</f>
+      <c r="O12" s="95">
+        <f>(O11-J11)/J11</f>
         <v>0.25287356321839094</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P12" s="95">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="Q11" s="83"/>
-    </row>
-    <row r="12" spans="2:23">
-      <c r="B12" s="89" t="s">
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="94"/>
+      <c r="U12" s="111"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="83"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="90">
-        <f>(J10-H10)/H10</f>
+      <c r="C13" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" s="95">
+        <f>(J11-H11)/H11</f>
         <v>-3.3333333333333603E-2</v>
       </c>
-      <c r="K12" s="98">
-        <f>(K10-J10)/J10</f>
+      <c r="K13" s="96">
+        <f>(K11-J11)/J11</f>
         <v>4.5977011494252921E-2</v>
       </c>
-      <c r="L12" s="98">
-        <f>(L10-K10)/K10</f>
+      <c r="L13" s="96">
+        <f>(L11-K11)/K11</f>
         <v>-9.8901098901098938E-2</v>
       </c>
-      <c r="M12" s="98">
-        <f>(M10-L10)/L10</f>
+      <c r="M13" s="96">
+        <f>(M11-L11)/L11</f>
         <v>0.12195121951219599</v>
       </c>
-      <c r="N12" s="83"/>
-      <c r="O12" s="90">
-        <f>(O10-M10)/M10</f>
+      <c r="N13" s="93"/>
+      <c r="O13" s="95">
+        <f>(O11-M11)/M11</f>
         <v>0.18478260869565138</v>
       </c>
-      <c r="P12" s="98">
-        <f>(P10-O10)/O10</f>
+      <c r="P13" s="96">
+        <f>(P11-O11)/O11</f>
         <v>-4.5871559633027519E-2</v>
       </c>
-      <c r="Q12" s="83"/>
-      <c r="T12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23">
-      <c r="B13" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="31">
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="94"/>
+      <c r="U13" s="111"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="136">
         <v>21.3</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D14" s="136">
         <v>23.7</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E14" s="136">
         <v>6</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F14" s="136">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G14" s="136">
         <v>6.6</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H14" s="92">
         <f>6.8</f>
         <v>6.8</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I14" s="136">
         <v>31.9</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J14" s="136">
         <v>8.4</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K14" s="136">
         <v>7.8</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L14" s="136">
         <v>7.4</v>
       </c>
-      <c r="M13" s="31">
-        <f>I13-J13-K13-L13</f>
+      <c r="M14" s="136">
+        <f>I14-J14-K14-L14</f>
         <v>8.2999999999999989</v>
       </c>
-      <c r="N13" s="96">
+      <c r="N14" s="92">
         <f>14.9</f>
         <v>14.9</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O14" s="136">
         <v>7.2</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P14" s="136">
         <v>7.6</v>
       </c>
-      <c r="Q13" s="83"/>
-    </row>
-    <row r="14" spans="2:23">
-      <c r="B14" s="89" t="s">
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="94"/>
+      <c r="U14" s="111"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="90">
-        <f xml:space="preserve"> (D13 - C13)/C13</f>
+      <c r="C15" s="93"/>
+      <c r="D15" s="95">
+        <f xml:space="preserve"> (D14 - C14)/C14</f>
         <v>0.1126760563380281</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E15" s="95">
         <v>-0.11</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F15" s="96">
         <v>-0.1</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G15" s="95">
         <v>0.31</v>
       </c>
-      <c r="H14" s="90">
+      <c r="H15" s="95">
         <v>0.46</v>
       </c>
-      <c r="I14" s="90">
-        <f xml:space="preserve"> (I13 - D13)/D13</f>
+      <c r="I15" s="95">
+        <f xml:space="preserve"> (I14 - D14)/D14</f>
         <v>0.34599156118143459</v>
       </c>
-      <c r="J14" s="90">
-        <f>(J13-E13)/E13</f>
+      <c r="J15" s="95">
+        <f>(J14-E14)/E14</f>
         <v>0.40000000000000008</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K15" s="95">
         <v>0.79</v>
       </c>
-      <c r="L14" s="90">
-        <f>(L13-G13)/G13</f>
+      <c r="L15" s="95">
+        <f>(L14-G14)/G14</f>
         <v>0.12121212121212133</v>
       </c>
-      <c r="M14" s="90">
-        <f>(M13-H13)/H13</f>
+      <c r="M15" s="95">
+        <f>(M14-H14)/H14</f>
         <v>0.22058823529411753</v>
       </c>
-      <c r="N14" s="98">
-        <f>(N13-J13-K13)/(J13+K13)</f>
+      <c r="N15" s="96">
+        <f>(N14-J14-K14)/(J14+K14)</f>
         <v>-8.0246913580246909E-2</v>
       </c>
-      <c r="O14" s="90">
-        <f>(O13-J13)/J13</f>
+      <c r="O15" s="95">
+        <f>(O14-J14)/J14</f>
         <v>-0.14285714285714288</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P15" s="95">
         <f>-0.02</f>
         <v>-0.02</v>
       </c>
-      <c r="Q14" s="83"/>
-      <c r="T14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23">
-      <c r="B15" s="89" t="s">
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="94"/>
+      <c r="U15" s="111"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="90">
-        <f>(J13-H13)/H13</f>
+      <c r="C16" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="95">
+        <f>(J14-H14)/H14</f>
         <v>0.2352941176470589</v>
       </c>
-      <c r="K15" s="98">
-        <f>(K13-J13)/J13</f>
+      <c r="K16" s="96">
+        <f>(K14-J14)/J14</f>
         <v>-7.1428571428571494E-2</v>
       </c>
-      <c r="L15" s="98">
-        <f>(L13-K13)/K13</f>
+      <c r="L16" s="96">
+        <f>(L14-K14)/K14</f>
         <v>-5.1282051282051218E-2</v>
       </c>
-      <c r="M15" s="98">
-        <f>(M13-L13)/L13</f>
+      <c r="M16" s="96">
+        <f>(M14-L14)/L14</f>
         <v>0.12162162162162142</v>
       </c>
-      <c r="N15" s="83"/>
-      <c r="O15" s="90">
-        <f>(O13-M13)/M13</f>
+      <c r="N16" s="93"/>
+      <c r="O16" s="95">
+        <f>(O14-M14)/M14</f>
         <v>-0.13253012048192758</v>
       </c>
-      <c r="P15" s="98">
-        <f>(P13-O13)/O13</f>
+      <c r="P16" s="96">
+        <f>(P14-O14)/O14</f>
         <v>5.5555555555555483E-2</v>
       </c>
-      <c r="Q15" s="83"/>
-    </row>
-    <row r="16" spans="2:23">
-      <c r="B16" s="89" t="s">
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="111"/>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C17" s="136">
         <v>24.5</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D17" s="136">
         <v>30.6</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E17" s="136">
         <v>10</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F17" s="136">
         <v>6.3</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G17" s="136">
         <v>6.4</v>
       </c>
-      <c r="H16" s="96">
-        <f>D16-E16-F16-G16</f>
+      <c r="H17" s="92">
+        <f>D17-E17-F17-G17</f>
         <v>7.9</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I17" s="136">
         <v>38.4</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J17" s="136">
         <v>13</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K17" s="136">
         <v>7.8</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L17" s="136">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M16" s="31">
-        <f>I16-J16-K16-L16</f>
+      <c r="M17" s="136">
+        <f>I17-J17-K17-L17</f>
         <v>8.7999999999999972</v>
       </c>
-      <c r="N16" s="96">
-        <f>SUM(O16,P16)</f>
+      <c r="N17" s="92">
+        <f>SUM(O17,P17)</f>
         <v>23.5</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O17" s="136">
         <v>14.7</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P17" s="136">
         <v>8.8000000000000007</v>
       </c>
-      <c r="Q16" s="83"/>
-      <c r="T16" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="89" t="s">
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="90">
-        <f xml:space="preserve"> (D16 - C16)/C16</f>
+      <c r="C18" s="93"/>
+      <c r="D18" s="95">
+        <f xml:space="preserve"> (D17 - C17)/C17</f>
         <v>0.24897959183673476</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E18" s="95">
         <v>0.37</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F18" s="96">
         <v>0.23</v>
       </c>
-      <c r="G17" s="90">
+      <c r="G18" s="95">
         <v>0.17</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H18" s="95">
         <v>0.21</v>
       </c>
-      <c r="I17" s="90">
-        <f xml:space="preserve"> (I16 - D16)/D16</f>
+      <c r="I18" s="95">
+        <f xml:space="preserve"> (I17 - D17)/D17</f>
         <v>0.2549019607843136</v>
       </c>
-      <c r="J17" s="90">
-        <f>(J16-E16)/E16</f>
+      <c r="J18" s="95">
+        <f>(J17-E17)/E17</f>
         <v>0.3</v>
       </c>
-      <c r="K17" s="90">
+      <c r="K18" s="95">
         <v>0.25</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L18" s="95">
         <f>36%</f>
         <v>0.36</v>
       </c>
-      <c r="M17" s="90">
-        <f>(M16-H16)/H16</f>
+      <c r="M18" s="95">
+        <f>(M17-H17)/H17</f>
         <v>0.11392405063291099</v>
       </c>
-      <c r="N17" s="98">
-        <f>(N16-J16-K16)/(J16+K16)</f>
+      <c r="N18" s="96">
+        <f>(N17-J17-K17)/(J17+K17)</f>
         <v>0.12980769230769232</v>
       </c>
-      <c r="O17" s="90">
-        <f>(O16-J16)/J16</f>
+      <c r="O18" s="95">
+        <f>(O17-J17)/J17</f>
         <v>0.13076923076923072</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P18" s="95">
         <v>0.12</v>
       </c>
-      <c r="Q17" s="83"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="89" t="s">
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="111"/>
+    </row>
+    <row r="19" spans="2:33">
+      <c r="B19" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="83"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="90">
-        <f>(J16-H16)/H16</f>
+      <c r="C19" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="95">
+        <f>(J17-H17)/H17</f>
         <v>0.64556962025316444</v>
       </c>
-      <c r="K18" s="98">
-        <f>(K16-J16)/J16</f>
+      <c r="K19" s="96">
+        <f>(K17-J17)/J17</f>
         <v>-0.4</v>
       </c>
-      <c r="L18" s="98">
-        <f>(L16-K16)/K16</f>
+      <c r="L19" s="96">
+        <f>(L17-K17)/K17</f>
         <v>0.12820512820512833</v>
       </c>
-      <c r="M18" s="98">
-        <f>(M16-L16)/L16</f>
+      <c r="M19" s="96">
+        <f>(M17-L17)/L17</f>
         <v>-4.0371746350005691E-16</v>
       </c>
-      <c r="N18" s="83"/>
-      <c r="O18" s="90">
-        <f>(O16-M16)/M16</f>
+      <c r="N19" s="93"/>
+      <c r="O19" s="95">
+        <f>(O17-M17)/M17</f>
         <v>0.67045454545454586</v>
       </c>
-      <c r="P18" s="98">
-        <f>(P16-O16)/O16</f>
+      <c r="P19" s="96">
+        <f>(P17-O17)/O17</f>
         <v>-0.40136054421768702</v>
       </c>
-      <c r="Q18" s="83"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="89" t="s">
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="111"/>
+    </row>
+    <row r="20" spans="2:33">
+      <c r="B20" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C20" s="136">
         <v>46.3</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D20" s="136">
         <v>53.8</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E20" s="136">
         <v>12.7</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F20" s="136">
         <v>13.3</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G20" s="136">
         <v>13.2</v>
       </c>
-      <c r="H19" s="96">
-        <f>D19-E19-F19-G19</f>
+      <c r="H20" s="92">
+        <f>D20-E20-F20-G20</f>
         <v>14.599999999999994</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I20" s="136">
         <v>68.400000000000006</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J20" s="136">
         <v>15.8</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K20" s="136">
         <v>16.899999999999999</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L20" s="136">
         <v>17.5</v>
       </c>
-      <c r="M19" s="31">
-        <f>I19-J19-K19-L19</f>
+      <c r="M20" s="136">
+        <f>I20-J20-K20-L20</f>
         <v>18.20000000000001</v>
       </c>
-      <c r="N19" s="96">
-        <f>SUM(O19,P19)</f>
+      <c r="N20" s="92">
+        <f>SUM(O20,P20)</f>
         <v>39.299999999999997</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O20" s="136">
         <v>19.5</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P20" s="136">
         <v>19.8</v>
       </c>
-      <c r="Q19" s="83"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="89" t="s">
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="111"/>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="90">
-        <f xml:space="preserve"> (D19 - C19)/C19</f>
+      <c r="C21" s="136"/>
+      <c r="D21" s="95">
+        <f xml:space="preserve"> (D20 - C20)/C20</f>
         <v>0.16198704103671707</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E21" s="96">
         <v>0.17</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F21" s="96">
         <v>0.17</v>
       </c>
-      <c r="G20" s="90">
+      <c r="G21" s="95">
         <v>0.15</v>
       </c>
-      <c r="H20" s="90">
+      <c r="H21" s="95">
         <v>0.16</v>
       </c>
-      <c r="I20" s="90">
-        <f xml:space="preserve"> (I19 - D19)/D19</f>
+      <c r="I21" s="95">
+        <f xml:space="preserve"> (I20 - D20)/D20</f>
         <v>0.27137546468401502</v>
       </c>
-      <c r="J20" s="90">
-        <f>(J19-E19)/E19</f>
+      <c r="J21" s="95">
+        <f>(J20-E20)/E20</f>
         <v>0.2440944881889765</v>
       </c>
-      <c r="K20" s="90">
-        <f>(K19-F19)/F19</f>
+      <c r="K21" s="95">
+        <f>(K20-F20)/F20</f>
         <v>0.27067669172932313</v>
       </c>
-      <c r="L20" s="90">
-        <f>(L19-G19)/G19</f>
+      <c r="L21" s="95">
+        <f>(L20-G20)/G20</f>
         <v>0.3257575757575758</v>
       </c>
-      <c r="M20" s="90">
-        <f>(M19-H19)/H19</f>
+      <c r="M21" s="95">
+        <f>(M20-H20)/H20</f>
         <v>0.2465753424657546</v>
       </c>
-      <c r="N20" s="98">
-        <f>(N19-J19-K19)/(J19+K19)</f>
+      <c r="N21" s="96">
+        <f>(N20-J20-K20)/(J20+K20)</f>
         <v>0.20183486238532103</v>
       </c>
-      <c r="O20" s="90">
-        <f>(O19-J19)/J19</f>
+      <c r="O21" s="95">
+        <f>(O20-J20)/J20</f>
         <v>0.23417721518987336</v>
       </c>
-      <c r="P20" s="90">
-        <f>(P19-K19)/K19</f>
+      <c r="P21" s="95">
+        <f>(P20-K20)/K20</f>
         <v>0.1715976331360948</v>
       </c>
-      <c r="Q20" s="83"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="89" t="s">
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="94"/>
+      <c r="T21" s="94"/>
+      <c r="U21" s="111"/>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="90">
-        <f>(J19-H19)/H19</f>
+      <c r="C22" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="95">
+        <f>(J20-H20)/H20</f>
         <v>8.2191780821918276E-2</v>
       </c>
-      <c r="K21" s="98">
-        <f>(K19-J19)/J19</f>
+      <c r="K22" s="96">
+        <f>(K20-J20)/J20</f>
         <v>6.962025316455682E-2</v>
       </c>
-      <c r="L21" s="98">
-        <f>(L19-K19)/K19</f>
+      <c r="L22" s="96">
+        <f>(L20-K20)/K20</f>
         <v>3.5502958579881741E-2</v>
       </c>
-      <c r="M21" s="98">
-        <f>(M19-L19)/L19</f>
+      <c r="M22" s="96">
+        <f>(M20-L20)/L20</f>
         <v>4.000000000000057E-2</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="90">
-        <f>(O19-M19)/M19</f>
+      <c r="N22" s="93"/>
+      <c r="O22" s="95">
+        <f>(O20-M20)/M20</f>
         <v>7.1428571428570842E-2</v>
       </c>
-      <c r="P21" s="98">
-        <f>(P19-O19)/O19</f>
+      <c r="P22" s="96">
+        <f>(P20-O20)/O20</f>
         <v>1.5384615384615422E-2</v>
       </c>
-      <c r="Q21" s="83"/>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="91"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="91" t="s">
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="111"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+    </row>
+    <row r="23" spans="2:33">
+      <c r="B23" s="110"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="93"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="111"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+    </row>
+    <row r="24" spans="2:33">
+      <c r="B24" s="110"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="154" t="s">
+        <v>125</v>
+      </c>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="111"/>
+    </row>
+    <row r="25" spans="2:33">
+      <c r="B25" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="96">
-        <f xml:space="preserve"> SUM(C7,C10,C13,C16)</f>
+      <c r="C25" s="92">
+        <f xml:space="preserve"> SUM(C8,C11,C14,C17)</f>
         <v>213.9</v>
       </c>
-      <c r="D23" s="96">
-        <f xml:space="preserve"> SUM(D7,D10,D13,D16)</f>
+      <c r="D25" s="92">
+        <f xml:space="preserve"> SUM(D8,D11,D14,D17)</f>
         <v>220.7</v>
       </c>
-      <c r="E23" s="96">
-        <f xml:space="preserve"> SUM(E7,E10,E13,E16)</f>
+      <c r="E25" s="92">
+        <f xml:space="preserve"> SUM(E8,E11,E14,E17)</f>
         <v>79.099999999999994</v>
       </c>
-      <c r="F23" s="96">
-        <f xml:space="preserve"> SUM(F7,F10,F13,F16)</f>
+      <c r="F25" s="92">
+        <f xml:space="preserve"> SUM(F8,F11,F14,F17)</f>
         <v>44.999999999999993</v>
       </c>
-      <c r="G23" s="96">
-        <f xml:space="preserve"> SUM(G7,G10,G13,G16)</f>
+      <c r="G25" s="92">
+        <f xml:space="preserve"> SUM(G8,G11,G14,G17)</f>
         <v>46.5</v>
       </c>
-      <c r="H23" s="96">
-        <f>SUM(H7,H10,H13,H16)</f>
+      <c r="H25" s="92">
+        <f>SUM(H8,H11,H14,H17)</f>
         <v>50.099999999999994</v>
       </c>
-      <c r="I23" s="96">
-        <f xml:space="preserve"> SUM(I7,I10,I13,I16)</f>
+      <c r="I25" s="92">
+        <f xml:space="preserve"> SUM(I8,I11,I14,I17)</f>
         <v>297.49999999999994</v>
       </c>
-      <c r="J23" s="96">
-        <f xml:space="preserve"> SUM(J7,J10,J13,J16)</f>
+      <c r="J25" s="92">
+        <f xml:space="preserve"> SUM(J8,J11,J14,J17)</f>
         <v>95.7</v>
       </c>
-      <c r="K23" s="96">
+      <c r="K25" s="92">
         <v>72.7</v>
       </c>
-      <c r="L23" s="96">
+      <c r="L25" s="92">
         <f xml:space="preserve"> 63.9</f>
         <v>63.9</v>
       </c>
-      <c r="M23" s="96">
-        <f xml:space="preserve"> SUM(M7,M10,M13,M16)</f>
+      <c r="M25" s="92">
+        <f xml:space="preserve"> SUM(M8,M11,M14,M17)</f>
         <v>65.2</v>
       </c>
-      <c r="N23" s="96">
-        <f xml:space="preserve"> SUM(N7,N10,N13,N16)</f>
+      <c r="N25" s="92">
+        <f xml:space="preserve"> SUM(N8,N11,N14,N17)</f>
         <v>181.9</v>
       </c>
-      <c r="O23" s="96">
-        <f xml:space="preserve"> SUM(O7,O10,O13,O16)</f>
+      <c r="O25" s="92">
+        <f xml:space="preserve"> SUM(O8,O11,O14,O17)</f>
         <v>104.4</v>
       </c>
-      <c r="P23" s="96">
-        <f xml:space="preserve"> SUM(P7,P10,P13,P16)</f>
+      <c r="P25" s="92">
+        <f xml:space="preserve"> SUM(P8,P11,P14,P17)</f>
         <v>77.399999999999991</v>
       </c>
-      <c r="Q23" s="83"/>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="95" t="s">
+      <c r="Q25" s="93"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="111"/>
+    </row>
+    <row r="26" spans="2:33">
+      <c r="B26" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="90">
-        <f xml:space="preserve"> (D23 - C23)/C23</f>
+      <c r="C26" s="93"/>
+      <c r="D26" s="95">
+        <f xml:space="preserve"> (D25 - C25)/C25</f>
         <v>3.1790556334735778E-2</v>
       </c>
-      <c r="E24" s="98">
+      <c r="E26" s="96">
         <v>0.08</v>
       </c>
-      <c r="F24" s="98">
+      <c r="F26" s="96">
         <v>-0.03</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G26" s="96">
         <v>0.1</v>
       </c>
-      <c r="H24" s="98">
+      <c r="H26" s="96">
         <v>-0.03</v>
       </c>
-      <c r="I24" s="90">
-        <f xml:space="preserve"> (I23 - D23)/D23</f>
+      <c r="I26" s="95">
+        <f xml:space="preserve"> (I25 - D25)/D25</f>
         <v>0.3479836882646124</v>
       </c>
-      <c r="J24" s="90">
-        <f>(J23-E23)/E23</f>
+      <c r="J26" s="95">
+        <f>(J25-E25)/E25</f>
         <v>0.20986093552465246</v>
       </c>
-      <c r="K24" s="90">
-        <f>(K23-F23)/F23</f>
+      <c r="K26" s="95">
+        <f>(K25-F25)/F25</f>
         <v>0.61555555555555586</v>
       </c>
-      <c r="L24" s="90">
-        <f>(L23-G23)/G23</f>
+      <c r="L26" s="95">
+        <f>(L25-G25)/G25</f>
         <v>0.37419354838709673</v>
       </c>
-      <c r="M24" s="90">
-        <f>(M23-H23)/H23</f>
+      <c r="M26" s="95">
+        <f>(M25-H25)/H25</f>
         <v>0.30139720558882255</v>
       </c>
-      <c r="N24" s="98">
-        <f>(N23-J23-K23)/(J23+K23)</f>
+      <c r="N26" s="96">
+        <f>(N25-J25-K25)/(J25+K25)</f>
         <v>8.0166270783847984E-2</v>
       </c>
-      <c r="O24" s="90">
-        <f>(O23-J23)/J23</f>
+      <c r="O26" s="95">
+        <f>(O25-J25)/J25</f>
         <v>9.0909090909090939E-2</v>
       </c>
-      <c r="P24" s="90">
-        <f>(P23-K23)/K23</f>
+      <c r="P26" s="95">
+        <f>(P25-K25)/K25</f>
         <v>6.4649243466299702E-2</v>
       </c>
-      <c r="Q24" s="83"/>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="89" t="s">
+      <c r="Q26" s="93"/>
+      <c r="R26" s="94"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="111"/>
+    </row>
+    <row r="27" spans="2:33">
+      <c r="B27" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="90">
-        <f>(J23-H23)/H23</f>
+      <c r="C27" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="95">
+        <f>(J25-H25)/H25</f>
         <v>0.91017964071856317</v>
       </c>
-      <c r="K25" s="98">
-        <f>(K23-J23)/J23</f>
+      <c r="K27" s="96">
+        <f>(K25-J25)/J25</f>
         <v>-0.24033437826541273</v>
       </c>
-      <c r="L25" s="98">
-        <f>(L23-K23)/K23</f>
+      <c r="L27" s="96">
+        <f>(L25-K25)/K25</f>
         <v>-0.12104539202200831</v>
       </c>
-      <c r="M25" s="98">
-        <f>(M23-L23)/L23</f>
+      <c r="M27" s="96">
+        <f>(M25-L25)/L25</f>
         <v>2.0344287949921821E-2</v>
       </c>
-      <c r="N25" s="83"/>
-      <c r="O25" s="90">
-        <f>(O23-M23)/M23</f>
+      <c r="N27" s="93"/>
+      <c r="O27" s="95">
+        <f>(O25-M25)/M25</f>
         <v>0.60122699386503065</v>
       </c>
-      <c r="P25" s="98">
-        <f>(P23-O23)/O23</f>
+      <c r="P27" s="96">
+        <f>(P25-O25)/O25</f>
         <v>-0.25862068965517254</v>
       </c>
-      <c r="Q25" s="83"/>
-    </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="91" t="s">
+      <c r="Q27" s="93"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="111"/>
+      <c r="W27" s="155" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="96">
-        <f xml:space="preserve"> C19</f>
+      <c r="C28" s="92">
+        <f xml:space="preserve"> C20</f>
         <v>46.3</v>
       </c>
-      <c r="D26" s="96">
-        <f xml:space="preserve"> D19</f>
+      <c r="D28" s="92">
+        <f xml:space="preserve"> D20</f>
         <v>53.8</v>
       </c>
-      <c r="E26" s="96">
-        <f xml:space="preserve"> E19</f>
+      <c r="E28" s="92">
+        <f xml:space="preserve"> E20</f>
         <v>12.7</v>
       </c>
-      <c r="F26" s="96">
-        <f xml:space="preserve"> F19</f>
+      <c r="F28" s="92">
+        <f xml:space="preserve"> F20</f>
         <v>13.3</v>
       </c>
-      <c r="G26" s="96">
-        <f xml:space="preserve"> G19</f>
+      <c r="G28" s="92">
+        <f xml:space="preserve"> G20</f>
         <v>13.2</v>
       </c>
-      <c r="H26" s="96">
-        <f>D26-E26-F26-G26</f>
+      <c r="H28" s="92">
+        <f>D28-E28-F28-G28</f>
         <v>14.599999999999994</v>
       </c>
-      <c r="I26" s="96">
-        <f xml:space="preserve"> I19</f>
+      <c r="I28" s="92">
+        <f t="shared" ref="I28:P28" si="0" xml:space="preserve"> I20</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="J26" s="96">
-        <f xml:space="preserve"> J19</f>
+      <c r="J28" s="92">
+        <f t="shared" si="0"/>
         <v>15.8</v>
       </c>
-      <c r="K26" s="96">
-        <f xml:space="preserve"> K19</f>
+      <c r="K28" s="92">
+        <f t="shared" si="0"/>
         <v>16.899999999999999</v>
       </c>
-      <c r="L26" s="96">
-        <f xml:space="preserve"> L19</f>
+      <c r="L28" s="92">
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
-      <c r="M26" s="96">
-        <f xml:space="preserve"> M19</f>
+      <c r="M28" s="92">
+        <f t="shared" si="0"/>
         <v>18.20000000000001</v>
       </c>
-      <c r="N26" s="96">
-        <f xml:space="preserve"> N19</f>
+      <c r="N28" s="92">
+        <f t="shared" si="0"/>
         <v>39.299999999999997</v>
       </c>
-      <c r="O26" s="96">
-        <f xml:space="preserve"> O19</f>
+      <c r="O28" s="92">
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="P26" s="96">
-        <f xml:space="preserve"> P19</f>
+      <c r="P28" s="92">
+        <f t="shared" si="0"/>
         <v>19.8</v>
       </c>
-      <c r="Q26" s="83"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="95" t="s">
+      <c r="Q28" s="93"/>
+      <c r="R28" s="94"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="111"/>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="90">
-        <f xml:space="preserve"> (D26 - C26)/C26</f>
+      <c r="C29" s="93"/>
+      <c r="D29" s="95">
+        <f xml:space="preserve"> (D28 - C28)/C28</f>
         <v>0.16198704103671707</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E29" s="96">
         <v>0.17</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F29" s="96">
         <v>0.17</v>
       </c>
-      <c r="G27" s="90">
+      <c r="G29" s="95">
         <v>0.15</v>
       </c>
-      <c r="H27" s="90">
+      <c r="H29" s="95">
         <v>0.16</v>
       </c>
-      <c r="I27" s="90">
-        <f xml:space="preserve"> (I26 - D26)/D26</f>
+      <c r="I29" s="95">
+        <f xml:space="preserve"> (I28 - D28)/D28</f>
         <v>0.27137546468401502</v>
       </c>
-      <c r="J27" s="90">
-        <f>(J26-E26)/E26</f>
+      <c r="J29" s="95">
+        <f>(J28-E28)/E28</f>
         <v>0.2440944881889765</v>
       </c>
-      <c r="K27" s="90">
-        <f>(K26-F26)/F26</f>
+      <c r="K29" s="95">
+        <f>(K28-F28)/F28</f>
         <v>0.27067669172932313</v>
       </c>
-      <c r="L27" s="90">
-        <f>(L26-G26)/G26</f>
+      <c r="L29" s="95">
+        <f>(L28-G28)/G28</f>
         <v>0.3257575757575758</v>
       </c>
-      <c r="M27" s="90">
-        <f>(M26-H26)/H26</f>
+      <c r="M29" s="95">
+        <f>(M28-H28)/H28</f>
         <v>0.2465753424657546</v>
       </c>
-      <c r="N27" s="98">
-        <f>(N26-J26-K26)/(J26+K26)</f>
+      <c r="N29" s="96">
+        <f>(N28-J28-K28)/(J28+K28)</f>
         <v>0.20183486238532103</v>
       </c>
-      <c r="O27" s="90">
-        <f>(O26-J26)/J26</f>
+      <c r="O29" s="95">
+        <f>(O28-J28)/J28</f>
         <v>0.23417721518987336</v>
       </c>
-      <c r="P27" s="90">
-        <f>(P26-K26)/K26</f>
+      <c r="P29" s="95">
+        <f>(P28-K28)/K28</f>
         <v>0.1715976331360948</v>
       </c>
-      <c r="Q27" s="83"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="89" t="s">
+      <c r="Q29" s="93"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="111"/>
+    </row>
+    <row r="30" spans="2:33">
+      <c r="B30" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="90">
-        <f>(J26-H26)/H26</f>
+      <c r="C30" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="95">
+        <f>(J28-H28)/H28</f>
         <v>8.2191780821918276E-2</v>
       </c>
-      <c r="K28" s="98">
-        <f>(K26-J26)/J26</f>
+      <c r="K30" s="96">
+        <f>(K28-J28)/J28</f>
         <v>6.962025316455682E-2</v>
       </c>
-      <c r="L28" s="98">
-        <f>(L26-K26)/K26</f>
+      <c r="L30" s="96">
+        <f>(L28-K28)/K28</f>
         <v>3.5502958579881741E-2</v>
       </c>
-      <c r="M28" s="98">
-        <f>(M26-L26)/L26</f>
+      <c r="M30" s="96">
+        <f>(M28-L28)/L28</f>
         <v>4.000000000000057E-2</v>
       </c>
-      <c r="N28" s="83"/>
-      <c r="O28" s="90">
-        <f>(O26-M26)/M26</f>
+      <c r="N30" s="93"/>
+      <c r="O30" s="95">
+        <f>(O28-M28)/M28</f>
         <v>7.1428571428570842E-2</v>
       </c>
-      <c r="P28" s="98">
-        <f>(P26-O26)/O26</f>
+      <c r="P30" s="96">
+        <f>(P28-O28)/O28</f>
         <v>1.5384615384615422E-2</v>
       </c>
-      <c r="Q28" s="83"/>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="95" t="s">
+      <c r="Q30" s="93"/>
+      <c r="R30" s="94"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="111"/>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="B31" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C31" s="92">
         <v>145</v>
       </c>
-      <c r="D29" s="96">
+      <c r="D31" s="92">
         <v>151.30000000000001</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E31" s="93">
         <v>52.1</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="31">
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="136">
         <v>192.3</v>
       </c>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-    </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="95" t="s">
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="111"/>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="B32" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="90">
-        <f xml:space="preserve"> (D29 - C29)/C29</f>
+      <c r="C32" s="93"/>
+      <c r="D32" s="95">
+        <f xml:space="preserve"> (D31 - C31)/C31</f>
         <v>4.3448275862069043E-2</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="90">
-        <f xml:space="preserve"> (I29 - D29)/D29</f>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="95">
+        <f xml:space="preserve"> (I31 - D31)/D31</f>
         <v>0.27098479841374751</v>
       </c>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="89" t="s">
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="94"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="111"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-    </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="95" t="s">
+      <c r="C33" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="111"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C34" s="92">
         <v>16.8</v>
       </c>
-      <c r="D32" s="96">
+      <c r="D34" s="92">
         <v>18.3</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E34" s="93">
         <v>4.5</v>
       </c>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="31">
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="136">
         <v>20.7</v>
       </c>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-    </row>
-    <row r="33" spans="2:17">
-      <c r="B33" s="95" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="111"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="90">
-        <f xml:space="preserve"> (D32 - C32)/C32</f>
+      <c r="C35" s="93"/>
+      <c r="D35" s="95">
+        <f xml:space="preserve"> (D34 - C34)/C34</f>
         <v>8.9285714285714288E-2</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="90">
-        <f xml:space="preserve"> (I32 - D32)/D32</f>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="95">
+        <f xml:space="preserve"> (I34 - D34)/D34</f>
         <v>0.13114754098360648</v>
       </c>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-    </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="89" t="s">
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="111"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-    </row>
-    <row r="35" spans="2:17">
-      <c r="B35" s="95" t="s">
+      <c r="C36" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="111"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="96">
-        <f xml:space="preserve"> C23-C29</f>
+      <c r="C37" s="92">
+        <f xml:space="preserve"> C25-C31</f>
         <v>68.900000000000006</v>
       </c>
-      <c r="D35" s="96">
-        <f xml:space="preserve"> D23-D29</f>
+      <c r="D37" s="92">
+        <f xml:space="preserve"> D25-D31</f>
         <v>69.399999999999977</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="96">
-        <f xml:space="preserve"> I23-I29</f>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="92">
+        <f xml:space="preserve"> I25-I31</f>
         <v>105.19999999999993</v>
       </c>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="95" t="s">
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="94"/>
+      <c r="S37" s="94"/>
+      <c r="T37" s="94"/>
+      <c r="U37" s="111"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="90">
-        <f xml:space="preserve"> (D35 - C35)/C35</f>
+      <c r="C38" s="93"/>
+      <c r="D38" s="95">
+        <f xml:space="preserve"> (D37 - C37)/C37</f>
         <v>7.2568940493464669E-3</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="90">
-        <f xml:space="preserve"> (I35 - D35)/D35</f>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="95">
+        <f xml:space="preserve"> (I37 - D37)/D37</f>
         <v>0.51585014409221852</v>
       </c>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-    </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="89" t="s">
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
+      <c r="L38" s="93"/>
+      <c r="M38" s="93"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="94"/>
+      <c r="S38" s="94"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="111"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="95" t="s">
+      <c r="C39" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="93"/>
+      <c r="R39" s="94"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="111"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="98">
-        <f>C35/C23</f>
+      <c r="C40" s="96">
+        <f>C37/C25</f>
         <v>0.32211313697989719</v>
       </c>
-      <c r="D38" s="98">
-        <f>D35/D23</f>
+      <c r="D40" s="96">
+        <f>D37/D25</f>
         <v>0.31445400996828266</v>
       </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="90">
-        <f>I35/I23</f>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="95">
+        <f>I37/I25</f>
         <v>0.35361344537815109</v>
       </c>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-    </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="95" t="s">
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="93"/>
+      <c r="P40" s="93"/>
+      <c r="Q40" s="93"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="111"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="90">
-        <f xml:space="preserve"> (D38 - C38)/C38</f>
+      <c r="C41" s="93"/>
+      <c r="D41" s="95">
+        <f xml:space="preserve"> (D40 - C40)/C40</f>
         <v>-2.3777754249409984E-2</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="90">
-        <f xml:space="preserve"> (I38 - D38)/D38</f>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="95">
+        <f xml:space="preserve"> (I40 - D40)/D40</f>
         <v>0.12453151865933669</v>
       </c>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="89" t="s">
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="93"/>
+      <c r="M41" s="93"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="93"/>
+      <c r="P41" s="93"/>
+      <c r="Q41" s="93"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="111"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="83"/>
-    </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="95" t="s">
+      <c r="C42" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="93"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="93"/>
+      <c r="P42" s="93"/>
+      <c r="Q42" s="93"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="111"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="96">
-        <f xml:space="preserve"> C26-C32</f>
+      <c r="C43" s="92">
+        <f xml:space="preserve"> C28-C34</f>
         <v>29.499999999999996</v>
       </c>
-      <c r="D41" s="96">
-        <f xml:space="preserve"> D26-D32</f>
+      <c r="D43" s="92">
+        <f xml:space="preserve"> D28-D34</f>
         <v>35.5</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="96">
-        <f xml:space="preserve"> I26-I32</f>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="92">
+        <f xml:space="preserve"> I28-I34</f>
         <v>47.7</v>
       </c>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="95" t="s">
+      <c r="J43" s="93"/>
+      <c r="K43" s="93"/>
+      <c r="L43" s="93"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
+      <c r="Q43" s="93"/>
+      <c r="R43" s="94"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="111"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="90">
-        <f xml:space="preserve"> (D41 - C41)/C41</f>
+      <c r="C44" s="93"/>
+      <c r="D44" s="95">
+        <f xml:space="preserve"> (D43 - C43)/C43</f>
         <v>0.20338983050847473</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="90">
-        <f xml:space="preserve"> (I41 - D41)/D41</f>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="95">
+        <f xml:space="preserve"> (I43 - D43)/D43</f>
         <v>0.34366197183098601</v>
       </c>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-    </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="89" t="s">
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93"/>
+      <c r="Q44" s="93"/>
+      <c r="R44" s="94"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="94"/>
+      <c r="U44" s="111"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="90"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="95" t="s">
+      <c r="C45" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="138"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="138"/>
+      <c r="I45" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="93"/>
+      <c r="M45" s="93"/>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93"/>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="94"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="94"/>
+      <c r="U45" s="111"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="98">
-        <f>C41/C26</f>
+      <c r="C46" s="96">
+        <f>C43/C28</f>
         <v>0.63714902807775375</v>
       </c>
-      <c r="D44" s="98">
-        <f>D41/D26</f>
+      <c r="D46" s="96">
+        <f>D43/D28</f>
         <v>0.65985130111524171</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="90">
-        <f>I41/I26</f>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="93"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="95">
+        <f>I43/I28</f>
         <v>0.69736842105263153</v>
       </c>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="95" t="s">
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="93"/>
+      <c r="Q46" s="93"/>
+      <c r="R46" s="94"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="94"/>
+      <c r="U46" s="111"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="90">
-        <f xml:space="preserve"> (D44 - C44)/C44</f>
+      <c r="C47" s="93"/>
+      <c r="D47" s="95">
+        <f xml:space="preserve"> (D46 - C46)/C46</f>
         <v>3.5631025140192958E-2</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="90">
-        <f xml:space="preserve"> (I44 - D44)/D44</f>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="95">
+        <f xml:space="preserve"> (I46 - D46)/D46</f>
         <v>5.6856931060044281E-2</v>
       </c>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="89" t="s">
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="94"/>
+      <c r="S47" s="94"/>
+      <c r="T47" s="94"/>
+      <c r="U47" s="111"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-    </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="95"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="95"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-    </row>
-    <row r="49" spans="2:21">
-      <c r="B49" s="95"/>
+      <c r="C48" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139" t="s">
+        <v>114</v>
+      </c>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="117"/>
+      <c r="S48" s="117"/>
+      <c r="T48" s="117"/>
+      <c r="U48" s="119"/>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49" s="87"/>
       <c r="C49" s="83"/>
       <c r="D49" s="83"/>
       <c r="E49" s="83"/>
@@ -5745,9 +6257,10 @@
       <c r="O49" s="83"/>
       <c r="P49" s="83"/>
       <c r="Q49" s="83"/>
-    </row>
-    <row r="50" spans="2:21">
-      <c r="B50" s="95"/>
+      <c r="U49" s="94"/>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50" s="87"/>
       <c r="C50" s="83"/>
       <c r="D50" s="83"/>
       <c r="E50" s="83"/>
@@ -5759,17 +6272,21 @@
       <c r="K50" s="83"/>
       <c r="L50" s="83"/>
       <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
+      <c r="N50" s="153" t="s">
+        <v>120</v>
+      </c>
       <c r="O50" s="83"/>
       <c r="P50" s="83"/>
       <c r="Q50" s="83"/>
     </row>
-    <row r="51" spans="2:21">
-      <c r="B51" s="95"/>
+    <row r="51" spans="2:25">
+      <c r="B51" s="127" t="s">
+        <v>116</v>
+      </c>
       <c r="C51" s="83"/>
       <c r="D51" s="83"/>
-      <c r="E51" s="83" t="s">
-        <v>99</v>
+      <c r="E51" s="153" t="s">
+        <v>121</v>
       </c>
       <c r="F51" s="83"/>
       <c r="G51" s="83"/>
@@ -5784,2876 +6301,3041 @@
       <c r="P51" s="83"/>
       <c r="Q51" s="83"/>
     </row>
-    <row r="52" spans="2:21">
-      <c r="B52" s="95"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-    </row>
-    <row r="53" spans="2:21">
-      <c r="B53" s="95" t="s">
+    <row r="52" spans="2:25">
+      <c r="B52" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="96">
-        <f>SUM(C23,C26)</f>
+      <c r="C52" s="104">
+        <f>SUM(C25,C28)</f>
         <v>260.2</v>
       </c>
-      <c r="D53" s="96">
-        <f>SUM(D23,D26)</f>
+      <c r="D52" s="104">
+        <f>SUM(D25,D28)</f>
         <v>274.5</v>
       </c>
-      <c r="E53" s="96">
-        <f>SUM(E23,E26)</f>
+      <c r="E52" s="104">
+        <f>SUM(E25,E28)</f>
         <v>91.8</v>
       </c>
-      <c r="F53" s="96">
-        <f>SUM(F23,F26)</f>
+      <c r="F52" s="104">
+        <f>SUM(F25,F28)</f>
         <v>58.3</v>
       </c>
-      <c r="G53" s="96">
-        <f>SUM(G23,G26)</f>
+      <c r="G52" s="104">
+        <f>SUM(G25,G28)</f>
         <v>59.7</v>
       </c>
-      <c r="H53" s="96">
-        <f>D53-E53-F53-G53</f>
+      <c r="H52" s="104">
+        <f>D52-E52-F52-G52</f>
         <v>64.699999999999989</v>
       </c>
-      <c r="I53" s="96">
+      <c r="I52" s="104">
         <f>365.8</f>
         <v>365.8</v>
       </c>
-      <c r="J53" s="96">
+      <c r="J52" s="104">
         <f>111.4</f>
         <v>111.4</v>
       </c>
-      <c r="K53" s="96">
-        <f>SUM(K23,K26)</f>
+      <c r="K52" s="104">
+        <f>SUM(K25,K28)</f>
         <v>89.6</v>
       </c>
-      <c r="L53" s="96">
-        <f>SUM(L23,L26)</f>
+      <c r="L52" s="104">
+        <f>SUM(L25,L28)</f>
         <v>81.400000000000006</v>
       </c>
-      <c r="M53" s="96">
-        <f>I53-J53-K53-L53</f>
+      <c r="M52" s="104">
+        <f>I52-J52-K52-L52</f>
         <v>83.4</v>
       </c>
-      <c r="N53" s="96">
-        <f>SUM(N23,N26)</f>
+      <c r="N52" s="104">
+        <f>SUM(N25,N28)</f>
         <v>221.2</v>
       </c>
-      <c r="O53" s="96">
-        <f>SUM(O23,O26)</f>
+      <c r="O52" s="104">
+        <f>SUM(O25,O28)</f>
         <v>123.9</v>
       </c>
-      <c r="P53" s="96">
+      <c r="P52" s="104">
         <f>97.3</f>
         <v>97.3</v>
       </c>
-      <c r="Q53" s="83">
-        <f>1.06*I53</f>
+      <c r="Q52" s="104">
+        <f>1.06*I52</f>
         <v>387.74800000000005</v>
       </c>
-      <c r="R53">
-        <f>1.01*Q53</f>
+      <c r="R52" s="104">
+        <f>1.01*Q52</f>
         <v>391.62548000000004</v>
       </c>
-      <c r="S53">
-        <f>1.03*R53</f>
+      <c r="S52" s="104">
+        <f>1.03*R52</f>
         <v>403.37424440000007</v>
       </c>
-      <c r="T53">
-        <f>1.06*S53</f>
+      <c r="T52" s="104">
+        <f>1.06*S52</f>
         <v>427.57669906400008</v>
       </c>
-      <c r="U53">
-        <f>1.09*T53</f>
+      <c r="U52" s="131">
+        <f>1.09*T52</f>
         <v>466.05860197976011</v>
       </c>
-    </row>
-    <row r="54" spans="2:21">
-      <c r="B54" s="95" t="s">
+      <c r="W52" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="X52" s="47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="83"/>
-      <c r="D54" s="90">
-        <f xml:space="preserve"> (D53 - C53)/C53</f>
+      <c r="C53" s="93"/>
+      <c r="D53" s="95">
+        <f xml:space="preserve"> (D52 - C52)/C52</f>
         <v>5.4957724827056159E-2</v>
       </c>
-      <c r="E54" s="98">
+      <c r="E53" s="96">
         <v>0.09</v>
       </c>
-      <c r="F54" s="98">
+      <c r="F53" s="96">
         <v>0.01</v>
       </c>
-      <c r="G54" s="98">
+      <c r="G53" s="96">
         <v>0.11</v>
       </c>
-      <c r="H54" s="98">
+      <c r="H53" s="96">
         <v>0.01</v>
       </c>
-      <c r="I54" s="90">
-        <f xml:space="preserve"> (I53 - D53)/D53</f>
+      <c r="I53" s="95">
+        <f xml:space="preserve"> (I52 - D52)/D52</f>
         <v>0.33260473588342443</v>
       </c>
-      <c r="J54" s="90">
-        <f>(J53-E53)/E53</f>
+      <c r="J53" s="95">
+        <f>(J52-E52)/E52</f>
         <v>0.21350762527233125</v>
       </c>
-      <c r="K54" s="90">
-        <f>(K53-F53)/F53</f>
+      <c r="K53" s="95">
+        <f>(K52-F52)/F52</f>
         <v>0.53687821612349917</v>
       </c>
-      <c r="L54" s="90">
-        <f>(L53-G53)/G53</f>
+      <c r="L53" s="95">
+        <f>(L52-G52)/G52</f>
         <v>0.36348408710217761</v>
       </c>
-      <c r="M54" s="90">
-        <f>(M53-H53)/H53</f>
+      <c r="M53" s="95">
+        <f>(M52-H52)/H52</f>
         <v>0.28902627511591994</v>
       </c>
-      <c r="N54" s="98">
-        <f>(N53-J53-K53)/(J53+K53)</f>
+      <c r="N53" s="96">
+        <f>(N52-J52-K52)/(J52+K52)</f>
         <v>0.10049751243781088</v>
       </c>
-      <c r="O54" s="90">
-        <f>(O53-J53)/J53</f>
+      <c r="O53" s="95">
+        <f>(O52-J52)/J52</f>
         <v>0.11220825852782765</v>
       </c>
-      <c r="P54" s="90">
-        <f>(P53-K53)/K53</f>
+      <c r="P53" s="95">
+        <f>(P52-K52)/K52</f>
         <v>8.5937500000000042E-2</v>
       </c>
-      <c r="Q54" s="98">
-        <f>(Q53-I53)/I53</f>
+      <c r="Q53" s="96">
+        <f>(Q52-I52)/I52</f>
         <v>6.0000000000000095E-2</v>
       </c>
-      <c r="R54" s="108">
-        <f>(R53-Q53)/Q53</f>
+      <c r="R53" s="97">
+        <f>(R52-Q52)/Q52</f>
         <v>9.9999999999999759E-3</v>
       </c>
-      <c r="S54" s="108">
-        <f t="shared" ref="S54:U54" si="0">(S53-R53)/R53</f>
+      <c r="S53" s="97">
+        <f t="shared" ref="S53:U53" si="1">(S52-R52)/R52</f>
         <v>3.0000000000000068E-2</v>
       </c>
-      <c r="T54" s="108">
-        <f t="shared" si="0"/>
+      <c r="T53" s="97">
+        <f t="shared" si="1"/>
         <v>6.0000000000000026E-2</v>
       </c>
-      <c r="U54" s="108">
-        <f t="shared" si="0"/>
+      <c r="U53" s="109">
+        <f t="shared" si="1"/>
         <v>9.0000000000000052E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:21">
-      <c r="B55" s="89" t="s">
+      <c r="W53" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="X53" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="90">
-        <f>(J53-H53)/H53</f>
+      <c r="C54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="138"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J54" s="86">
+        <f>(J52-H52)/H52</f>
         <v>0.72179289026275151</v>
       </c>
-      <c r="K55" s="98">
-        <f>(K53-J53)/J53</f>
+      <c r="K54" s="88">
+        <f>(K52-J52)/J52</f>
         <v>-0.1956912028725315</v>
       </c>
-      <c r="L55" s="98">
-        <f>(L53-K53)/K53</f>
+      <c r="L54" s="88">
+        <f t="shared" ref="L54:M54" si="2">(L52-K52)/K52</f>
         <v>-9.1517857142857026E-2</v>
       </c>
-      <c r="M55" s="98">
-        <f>(M53-L53)/L53</f>
+      <c r="M54" s="88">
+        <f t="shared" si="2"/>
         <v>2.4570024570024569E-2</v>
       </c>
-      <c r="N55" s="83"/>
-      <c r="O55" s="90">
-        <f>(O53-M53)/M53</f>
+      <c r="N54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="O54" s="86">
+        <f>(O52-M52)/M52</f>
         <v>0.48561151079136688</v>
       </c>
-      <c r="P55" s="98">
-        <f>(P53-O53)/O53</f>
+      <c r="P54" s="88">
+        <f>(P52-O52)/O52</f>
         <v>-0.21468926553672321</v>
       </c>
-      <c r="Q55" s="83"/>
-    </row>
-    <row r="56" spans="2:21">
-      <c r="B56" s="95" t="s">
+      <c r="Q54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="R54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="S54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="T54" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="U54" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="W54" s="51">
+        <f>AVERAGE(D53,Q53,R53,S53,T53,U53)</f>
+        <v>5.0826287471176068E-2</v>
+      </c>
+      <c r="X54" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25">
+      <c r="B55" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="96">
-        <f>C29 + C32</f>
+      <c r="C55" s="92">
+        <f>C31 + C34</f>
         <v>161.80000000000001</v>
       </c>
-      <c r="D56" s="96">
-        <f>D29 + D32</f>
+      <c r="D55" s="92">
+        <f>D31 + D34</f>
         <v>169.60000000000002</v>
       </c>
-      <c r="E56" s="96">
-        <f>E29 + E32</f>
+      <c r="E55" s="92">
+        <f>E31 + E34</f>
         <v>56.6</v>
       </c>
-      <c r="F56" s="96">
+      <c r="F55" s="92">
         <v>35.9</v>
       </c>
-      <c r="G56" s="96">
+      <c r="G55" s="92">
         <v>37</v>
       </c>
-      <c r="H56" s="96">
+      <c r="H55" s="92">
         <f>40</f>
         <v>40</v>
       </c>
-      <c r="I56" s="96">
-        <f>I29 + I32</f>
+      <c r="I55" s="92">
+        <f>I31 + I34</f>
         <v>213</v>
       </c>
-      <c r="J56" s="96">
+      <c r="J55" s="92">
         <v>67.099999999999994</v>
       </c>
-      <c r="K56" s="96">
+      <c r="K55" s="92">
         <v>51.5</v>
       </c>
-      <c r="L56" s="96">
+      <c r="L55" s="92">
         <v>46.2</v>
       </c>
-      <c r="M56" s="96">
+      <c r="M55" s="92">
         <v>48.2</v>
       </c>
+      <c r="N55" s="92">
+        <v>124.4</v>
+      </c>
+      <c r="O55" s="92">
+        <v>69.7</v>
+      </c>
+      <c r="P55" s="92">
+        <v>54.7</v>
+      </c>
+      <c r="Q55" s="140">
+        <f>1.06*I55</f>
+        <v>225.78</v>
+      </c>
+      <c r="R55" s="140">
+        <f>1.01*Q55</f>
+        <v>228.0378</v>
+      </c>
+      <c r="S55" s="140">
+        <f>1.03*R55</f>
+        <v>234.87893400000002</v>
+      </c>
+      <c r="T55" s="140">
+        <f>1.06*S55</f>
+        <v>248.97167004000002</v>
+      </c>
+      <c r="U55" s="143">
+        <f>1.09*T55</f>
+        <v>271.37912034360005</v>
+      </c>
+      <c r="W55" s="53">
+        <v>154.09</v>
+      </c>
+      <c r="X55" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25">
+      <c r="B56" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="93"/>
+      <c r="D56" s="95">
+        <f xml:space="preserve"> (D55 - C55)/C55</f>
+        <v>4.8207663782447535E-2</v>
+      </c>
+      <c r="E56" s="96">
+        <v>0.08</v>
+      </c>
+      <c r="F56" s="96">
+        <v>-0.01</v>
+      </c>
+      <c r="G56" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="96">
+        <v>0.01</v>
+      </c>
+      <c r="I56" s="95">
+        <f xml:space="preserve"> (I55 - D55)/D55</f>
+        <v>0.25589622641509419</v>
+      </c>
+      <c r="J56" s="95">
+        <f xml:space="preserve"> (J55 - E55)/E55</f>
+        <v>0.18551236749116595</v>
+      </c>
+      <c r="K56" s="95">
+        <f xml:space="preserve"> (K55 - F55)/F55</f>
+        <v>0.43454038997214489</v>
+      </c>
+      <c r="L56" s="95">
+        <f xml:space="preserve"> (L55 - G55)/G55</f>
+        <v>0.24864864864864872</v>
+      </c>
+      <c r="M56" s="95">
+        <f>(M55-H55)/H55</f>
+        <v>0.20500000000000007</v>
+      </c>
       <c r="N56" s="96">
-        <v>124.4</v>
-      </c>
-      <c r="O56" s="96">
-        <v>69.7</v>
-      </c>
-      <c r="P56" s="96">
-        <v>54.7</v>
-      </c>
-      <c r="Q56" s="83">
-        <f>1.06*I56</f>
-        <v>225.78</v>
-      </c>
-      <c r="R56">
-        <f>1.01*Q56</f>
-        <v>228.0378</v>
-      </c>
-      <c r="S56">
-        <f>1.03*R56</f>
-        <v>234.87893400000002</v>
-      </c>
-      <c r="T56">
-        <f>1.06*S56</f>
-        <v>248.97167004000002</v>
-      </c>
-      <c r="U56">
-        <f>1.09*T56</f>
-        <v>271.37912034360005</v>
-      </c>
-    </row>
-    <row r="57" spans="2:21">
-      <c r="B57" s="95" t="s">
+        <f>(N55-J55-K55)/(J55+K55)</f>
+        <v>4.8903878583473961E-2</v>
+      </c>
+      <c r="O56" s="95">
+        <f>(O55-J55)/J55</f>
+        <v>3.8748137108792977E-2</v>
+      </c>
+      <c r="P56" s="95">
+        <f>(P55-K55)/K55</f>
+        <v>6.213592233009714E-2</v>
+      </c>
+      <c r="Q56" s="141">
+        <f>(Q55-I55)/I55</f>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="R56" s="144">
+        <f>(R55-Q55)/Q55</f>
+        <v>1.0000000000000014E-2</v>
+      </c>
+      <c r="S56" s="144">
+        <f t="shared" ref="S56:U56" si="3">(S55-R55)/R55</f>
+        <v>3.0000000000000047E-2</v>
+      </c>
+      <c r="T56" s="144">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000019E-2</v>
+      </c>
+      <c r="U56" s="145">
+        <f t="shared" si="3"/>
+        <v>9.0000000000000108E-2</v>
+      </c>
+      <c r="W56" s="55">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="X56" s="52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="138"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="86">
+        <f>(J55-H55)/H55</f>
+        <v>0.67749999999999988</v>
+      </c>
+      <c r="K57" s="88">
+        <f>(K55-J55)/J55</f>
+        <v>-0.23248882265275703</v>
+      </c>
+      <c r="L57" s="88">
+        <f t="shared" ref="L57:M57" si="4">(L55-K55)/K55</f>
+        <v>-0.10291262135922324</v>
+      </c>
+      <c r="M57" s="88">
+        <f t="shared" si="4"/>
+        <v>4.3290043290043288E-2</v>
+      </c>
+      <c r="N57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="O57" s="86">
+        <f>(O55-M55)/M55</f>
+        <v>0.44605809128630702</v>
+      </c>
+      <c r="P57" s="88">
+        <f>(P55-O55)/O55</f>
+        <v>-0.21520803443328551</v>
+      </c>
+      <c r="Q57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="R57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="S57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="T57" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="U57" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="W57" s="51">
+        <v>0.01</v>
+      </c>
+      <c r="X57" s="52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25">
+      <c r="B58" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="92">
+        <f t="shared" ref="C58:P58" si="5">C52-C55</f>
+        <v>98.399999999999977</v>
+      </c>
+      <c r="D58" s="92">
+        <f t="shared" si="5"/>
+        <v>104.89999999999998</v>
+      </c>
+      <c r="E58" s="92">
+        <f t="shared" si="5"/>
+        <v>35.199999999999996</v>
+      </c>
+      <c r="F58" s="92">
+        <f t="shared" si="5"/>
+        <v>22.4</v>
+      </c>
+      <c r="G58" s="92">
+        <f t="shared" si="5"/>
+        <v>22.700000000000003</v>
+      </c>
+      <c r="H58" s="92">
+        <f t="shared" si="5"/>
+        <v>24.699999999999989</v>
+      </c>
+      <c r="I58" s="92">
+        <f t="shared" si="5"/>
+        <v>152.80000000000001</v>
+      </c>
+      <c r="J58" s="92">
+        <f t="shared" si="5"/>
+        <v>44.300000000000011</v>
+      </c>
+      <c r="K58" s="92">
+        <f t="shared" si="5"/>
+        <v>38.099999999999994</v>
+      </c>
+      <c r="L58" s="92">
+        <f t="shared" si="5"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M58" s="92">
+        <f t="shared" si="5"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="N58" s="140">
+        <f t="shared" si="5"/>
+        <v>96.799999999999983</v>
+      </c>
+      <c r="O58" s="92">
+        <f t="shared" si="5"/>
+        <v>54.2</v>
+      </c>
+      <c r="P58" s="92">
+        <f t="shared" si="5"/>
+        <v>42.599999999999994</v>
+      </c>
+      <c r="Q58" s="140">
+        <f>1.07*I58</f>
+        <v>163.49600000000001</v>
+      </c>
+      <c r="R58" s="140">
+        <f>0.93*Q58</f>
+        <v>152.05128000000002</v>
+      </c>
+      <c r="S58" s="140">
+        <f>1.04*R58</f>
+        <v>158.13333120000001</v>
+      </c>
+      <c r="T58" s="140">
+        <f>1.06*S58</f>
+        <v>167.62133107200003</v>
+      </c>
+      <c r="U58" s="143">
+        <f>1.08*T58</f>
+        <v>181.03103755776004</v>
+      </c>
+      <c r="W58" s="57">
+        <f>W56*W55</f>
+        <v>2519.3715000000002</v>
+      </c>
+      <c r="X58" s="52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25">
+      <c r="B59" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="90">
-        <f xml:space="preserve"> (D56 - C56)/C56</f>
-        <v>4.8207663782447535E-2</v>
-      </c>
-      <c r="E57" s="98">
-        <v>0.08</v>
-      </c>
-      <c r="F57" s="98">
-        <v>-0.01</v>
-      </c>
-      <c r="G57" s="98">
+      <c r="C59" s="92"/>
+      <c r="D59" s="95">
+        <f xml:space="preserve"> (D58 - C58)/C58</f>
+        <v>6.6056910569105703E-2</v>
+      </c>
+      <c r="E59" s="96">
         <v>0.1</v>
       </c>
-      <c r="H57" s="98">
+      <c r="F59" s="96">
+        <v>0.02</v>
+      </c>
+      <c r="G59" s="96">
+        <v>0.12</v>
+      </c>
+      <c r="H59" s="96">
+        <v>1.54E-2</v>
+      </c>
+      <c r="I59" s="95">
+        <f xml:space="preserve"> (I58 - D58)/D58</f>
+        <v>0.4566253574833179</v>
+      </c>
+      <c r="J59" s="95">
+        <f xml:space="preserve"> (J58 - E58)/E58</f>
+        <v>0.25852272727272774</v>
+      </c>
+      <c r="K59" s="95">
+        <f xml:space="preserve"> (K58 - F58)/F58</f>
+        <v>0.70089285714285698</v>
+      </c>
+      <c r="L59" s="95">
+        <f xml:space="preserve"> (L58 - G58)/G58</f>
+        <v>0.5506607929515418</v>
+      </c>
+      <c r="M59" s="95">
+        <f xml:space="preserve"> (M58 - H58)/H58</f>
+        <v>0.42510121457489958</v>
+      </c>
+      <c r="N59" s="141">
+        <f>(N58-J58-K58)/(J58+K58)</f>
+        <v>0.17475728155339776</v>
+      </c>
+      <c r="O59" s="95">
+        <f>(O58-J58)/J58</f>
+        <v>0.22347629796839705</v>
+      </c>
+      <c r="P59" s="95">
+        <f>(P58-K58)/K58</f>
+        <v>0.11811023622047245</v>
+      </c>
+      <c r="Q59" s="141">
+        <f>(Q58-I58)/I58</f>
+        <v>6.9999999999999979E-2</v>
+      </c>
+      <c r="R59" s="146">
+        <f>(R58-Q58)/Q58</f>
+        <v>-6.9999999999999937E-2</v>
+      </c>
+      <c r="S59" s="144">
+        <f t="shared" ref="S59" si="6">(S58-R58)/R58</f>
+        <v>3.9999999999999959E-2</v>
+      </c>
+      <c r="T59" s="144">
+        <f t="shared" ref="T59" si="7">(T58-S58)/S58</f>
+        <v>6.0000000000000102E-2</v>
+      </c>
+      <c r="U59" s="145">
+        <f t="shared" ref="U59" si="8">(U58-T58)/T58</f>
+        <v>8.0000000000000057E-2</v>
+      </c>
+      <c r="W59" s="57">
+        <v>70</v>
+      </c>
+      <c r="X59" s="52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25">
+      <c r="B60" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J60" s="86">
+        <f>(J58-H58)/H58</f>
+        <v>0.793522267206479</v>
+      </c>
+      <c r="K60" s="88">
+        <f>(K58-J58)/J58</f>
+        <v>-0.13995485327313806</v>
+      </c>
+      <c r="L60" s="88">
+        <f t="shared" ref="L60:M60" si="9">(L58-K58)/K58</f>
+        <v>-7.6115485564304253E-2</v>
+      </c>
+      <c r="M60" s="88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="O60" s="86">
+        <f>(O58-M58)/M58</f>
+        <v>0.53977272727272718</v>
+      </c>
+      <c r="P60" s="88">
+        <f>(P58-O58)/O58</f>
+        <v>-0.21402214022140237</v>
+      </c>
+      <c r="Q60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="R60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="S60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="T60" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="U60" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="W60" s="57"/>
+      <c r="X60" s="52"/>
+    </row>
+    <row r="61" spans="2:25">
+      <c r="B61" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="96">
+        <f t="shared" ref="C61:U61" si="10">C58/C52</f>
+        <v>0.37817063797079165</v>
+      </c>
+      <c r="D61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.38214936247723125</v>
+      </c>
+      <c r="E61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.38344226579520696</v>
+      </c>
+      <c r="F61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.38421955403087477</v>
+      </c>
+      <c r="G61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.38023450586264662</v>
+      </c>
+      <c r="H61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.38176197836166914</v>
+      </c>
+      <c r="I61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.41771459814106071</v>
+      </c>
+      <c r="J61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.39766606822262129</v>
+      </c>
+      <c r="K61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.42522321428571425</v>
+      </c>
+      <c r="L61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="M61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.42206235011990406</v>
+      </c>
+      <c r="N61" s="141">
+        <f t="shared" si="10"/>
+        <v>0.43761301989150087</v>
+      </c>
+      <c r="O61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.4374495560936239</v>
+      </c>
+      <c r="P61" s="96">
+        <f t="shared" si="10"/>
+        <v>0.43782117163412121</v>
+      </c>
+      <c r="Q61" s="141">
+        <f t="shared" si="10"/>
+        <v>0.42165530189710843</v>
+      </c>
+      <c r="R61" s="141">
+        <f t="shared" si="10"/>
+        <v>0.38825686214288202</v>
+      </c>
+      <c r="S61" s="141">
+        <f t="shared" si="10"/>
+        <v>0.39202634624135657</v>
+      </c>
+      <c r="T61" s="141">
+        <f t="shared" si="10"/>
+        <v>0.39202634624135663</v>
+      </c>
+      <c r="U61" s="147">
+        <f t="shared" si="10"/>
+        <v>0.38842977425749092</v>
+      </c>
+      <c r="W61" s="57"/>
+      <c r="X61" s="52"/>
+    </row>
+    <row r="62" spans="2:25">
+      <c r="B62" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="93"/>
+      <c r="D62" s="95">
+        <f xml:space="preserve"> (D61 - C61)/C61</f>
+        <v>1.0520976794467321E-2</v>
+      </c>
+      <c r="E62" s="95">
+        <v>0</v>
+      </c>
+      <c r="F62" s="96">
+        <v>0.02</v>
+      </c>
+      <c r="G62" s="96">
         <v>0.01</v>
       </c>
-      <c r="I57" s="90">
-        <f xml:space="preserve"> (I56 - D56)/D56</f>
-        <v>0.25589622641509419</v>
-      </c>
-      <c r="J57" s="90">
-        <f xml:space="preserve"> (J56 - E56)/E56</f>
-        <v>0.18551236749116595</v>
-      </c>
-      <c r="K57" s="90">
-        <f xml:space="preserve"> (K56 - F56)/F56</f>
-        <v>0.43454038997214489</v>
-      </c>
-      <c r="L57" s="90">
-        <f xml:space="preserve"> (L56 - G56)/G56</f>
-        <v>0.24864864864864872</v>
-      </c>
-      <c r="M57" s="90">
-        <f>(M56-H56)/H56</f>
-        <v>0.20500000000000007</v>
-      </c>
-      <c r="N57" s="98">
-        <f>(N56-J56-K56)/(J56+K56)</f>
-        <v>4.8903878583473961E-2</v>
-      </c>
-      <c r="O57" s="90">
-        <f>(O56-J56)/J56</f>
-        <v>3.8748137108792977E-2</v>
-      </c>
-      <c r="P57" s="90">
-        <f>(P56-K56)/K56</f>
-        <v>6.213592233009714E-2</v>
-      </c>
-      <c r="Q57" s="98">
-        <f>(Q56-I56)/I56</f>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="R57" s="108">
-        <f>(R56-Q56)/Q56</f>
-        <v>1.0000000000000014E-2</v>
-      </c>
-      <c r="S57" s="108">
-        <f t="shared" ref="S57:U57" si="1">(S56-R56)/R56</f>
-        <v>3.0000000000000047E-2</v>
-      </c>
-      <c r="T57" s="108">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000019E-2</v>
-      </c>
-      <c r="U57" s="108">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000108E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:21">
-      <c r="B58" s="89" t="s">
+      <c r="H62" s="96">
+        <v>0.01</v>
+      </c>
+      <c r="I62" s="95">
+        <f xml:space="preserve"> (I61 - D61)/D61</f>
+        <v>9.3066322113643379E-2</v>
+      </c>
+      <c r="J62" s="95">
+        <f xml:space="preserve"> (J61 - E61)/E61</f>
+        <v>3.7095030194222611E-2</v>
+      </c>
+      <c r="K62" s="95">
+        <f xml:space="preserve"> (K61 - F61)/F61</f>
+        <v>0.10671934789540811</v>
+      </c>
+      <c r="L62" s="95">
+        <f xml:space="preserve"> (L61 - G61)/G61</f>
+        <v>0.1372782474104059</v>
+      </c>
+      <c r="M62" s="95">
+        <f xml:space="preserve"> (M61 - H61)/H61</f>
+        <v>0.10556413169059919</v>
+      </c>
+      <c r="N62" s="141">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="O62" s="95">
+        <f>(O61-J61)/J61</f>
+        <v>0.1000424503121826</v>
+      </c>
+      <c r="P62" s="95">
+        <f>(P61-K61)/K61</f>
+        <v>2.9626692346909816E-2</v>
+      </c>
+      <c r="Q62" s="138"/>
+      <c r="R62" s="148"/>
+      <c r="S62" s="148"/>
+      <c r="T62" s="148"/>
+      <c r="U62" s="149"/>
+      <c r="W62" s="57">
+        <v>15.6</v>
+      </c>
+      <c r="X62" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y62" s="155" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25">
+      <c r="B63" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="90">
-        <f>(J56-H56)/H56</f>
-        <v>0.67749999999999988</v>
-      </c>
-      <c r="K58" s="98">
-        <f>(K56-J56)/J56</f>
-        <v>-0.23248882265275703</v>
-      </c>
-      <c r="L58" s="98">
-        <f>(L56-K56)/K56</f>
-        <v>-0.10291262135922324</v>
-      </c>
-      <c r="M58" s="98">
-        <f>(M56-L56)/L56</f>
-        <v>4.3290043290043288E-2</v>
-      </c>
-      <c r="N58" s="83"/>
-      <c r="O58" s="90">
-        <f>(O56-M56)/M56</f>
-        <v>0.44605809128630702</v>
-      </c>
-      <c r="P58" s="98">
-        <f>(P56-O56)/O56</f>
-        <v>-0.21520803443328551</v>
-      </c>
-      <c r="Q58" s="83"/>
-    </row>
-    <row r="59" spans="2:21">
-      <c r="B59" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="96">
-        <f>C53-C56</f>
-        <v>98.399999999999977</v>
-      </c>
-      <c r="D59" s="96">
-        <f>D53-D56</f>
-        <v>104.89999999999998</v>
-      </c>
-      <c r="E59" s="96">
-        <f>E53-E56</f>
-        <v>35.199999999999996</v>
-      </c>
-      <c r="F59" s="96">
-        <f>F53-F56</f>
-        <v>22.4</v>
-      </c>
-      <c r="G59" s="96">
-        <f>G53-G56</f>
-        <v>22.700000000000003</v>
-      </c>
-      <c r="H59" s="96">
-        <f>H53-H56</f>
-        <v>24.699999999999989</v>
-      </c>
-      <c r="I59" s="96">
-        <f>I53-I56</f>
-        <v>152.80000000000001</v>
-      </c>
-      <c r="J59" s="96">
-        <f>J53-J56</f>
-        <v>44.300000000000011</v>
-      </c>
-      <c r="K59" s="96">
-        <f>K53-K56</f>
-        <v>38.099999999999994</v>
-      </c>
-      <c r="L59" s="96">
-        <f>L53-L56</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="M59" s="96">
-        <f>M53-M56</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="N59" s="96">
-        <f>N53-N56</f>
-        <v>96.799999999999983</v>
-      </c>
-      <c r="O59" s="96">
-        <f>O53-O56</f>
-        <v>54.2</v>
-      </c>
-      <c r="P59" s="96">
-        <f>P53-P56</f>
-        <v>42.599999999999994</v>
-      </c>
-      <c r="Q59" s="83">
-        <f>1.07*I59</f>
-        <v>163.49600000000001</v>
-      </c>
-      <c r="R59" s="96">
-        <f>0.93*Q59</f>
-        <v>152.05128000000002</v>
-      </c>
-      <c r="S59">
-        <f>1.04*R59</f>
-        <v>158.13333120000001</v>
-      </c>
-      <c r="T59">
-        <f>1.06*S59</f>
-        <v>167.62133107200003</v>
-      </c>
-      <c r="U59">
-        <f>1.08*T59</f>
-        <v>181.03103755776004</v>
-      </c>
-    </row>
-    <row r="60" spans="2:21">
-      <c r="B60" s="95" t="s">
+      <c r="C63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="138"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="86">
+        <f>(J61-H61)/H61</f>
+        <v>4.1659700971805852E-2</v>
+      </c>
+      <c r="K63" s="88">
+        <f>(K61-J61)/J61</f>
+        <v>6.9297202515317249E-2</v>
+      </c>
+      <c r="L63" s="88">
+        <f t="shared" ref="L63:M63" si="11">(L61-K61)/K61</f>
+        <v>1.6953961835851752E-2</v>
+      </c>
+      <c r="M63" s="88">
+        <f t="shared" si="11"/>
+        <v>-2.3980815347721913E-2</v>
+      </c>
+      <c r="N63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="O63" s="86">
+        <f>(O61-M61)/M61</f>
+        <v>3.6457186880915766E-2</v>
+      </c>
+      <c r="P63" s="88">
+        <f>(P61-O61)/O61</f>
+        <v>8.4950489792649699E-4</v>
+      </c>
+      <c r="Q63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="R63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="S63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="T63" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="U63" s="142" t="s">
+        <v>114</v>
+      </c>
+      <c r="W63" s="51">
+        <v>0.35</v>
+      </c>
+      <c r="X63" s="52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25">
+      <c r="B64" s="108"/>
+      <c r="C64" s="93"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="93"/>
+      <c r="G64" s="93"/>
+      <c r="H64" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="I64" s="154"/>
+      <c r="J64" s="154"/>
+      <c r="K64" s="154"/>
+      <c r="L64" s="154"/>
+      <c r="M64" s="154"/>
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="93"/>
+      <c r="Q64" s="93"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
+      <c r="T64" s="94"/>
+      <c r="U64" s="111"/>
+      <c r="W64" s="62">
+        <f>(W72*W56)/Q52</f>
+        <v>4.4171771682093182</v>
+      </c>
+      <c r="X64" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y64" s="155" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65" s="108"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="154" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="94"/>
+      <c r="T65" s="94"/>
+      <c r="U65" s="111"/>
+      <c r="W65" s="63">
+        <v>25</v>
+      </c>
+      <c r="X65" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26">
+      <c r="B66" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="92">
+        <v>16.25</v>
+      </c>
+      <c r="D66" s="92">
+        <v>18.7</v>
+      </c>
+      <c r="E66" s="92"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="92">
+        <v>21.9</v>
+      </c>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="93"/>
+      <c r="Q66" s="93"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="94"/>
+      <c r="T66" s="94"/>
+      <c r="U66" s="111"/>
+      <c r="W66" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="X66" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26">
+      <c r="B67" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="96"/>
-      <c r="D60" s="90">
-        <f xml:space="preserve"> (D59 - C59)/C59</f>
-        <v>6.6056910569105703E-2</v>
-      </c>
-      <c r="E60" s="98">
-        <v>0.1</v>
-      </c>
-      <c r="F60" s="98">
-        <v>0.02</v>
-      </c>
-      <c r="G60" s="98">
-        <v>0.12</v>
-      </c>
-      <c r="H60" s="98">
-        <v>1.54E-2</v>
-      </c>
-      <c r="I60" s="90">
-        <f xml:space="preserve"> (I59 - D59)/D59</f>
-        <v>0.4566253574833179</v>
-      </c>
-      <c r="J60" s="90">
-        <f xml:space="preserve"> (J59 - E59)/E59</f>
-        <v>0.25852272727272774</v>
-      </c>
-      <c r="K60" s="90">
-        <f xml:space="preserve"> (K59 - F59)/F59</f>
-        <v>0.70089285714285698</v>
-      </c>
-      <c r="L60" s="90">
-        <f xml:space="preserve"> (L59 - G59)/G59</f>
-        <v>0.5506607929515418</v>
-      </c>
-      <c r="M60" s="90">
-        <f xml:space="preserve"> (M59 - H59)/H59</f>
-        <v>0.42510121457489958</v>
-      </c>
-      <c r="N60" s="98">
-        <f>(N59-J59-K59)/(J59+K59)</f>
-        <v>0.17475728155339776</v>
-      </c>
-      <c r="O60" s="90">
-        <f>(O59-J59)/J59</f>
-        <v>0.22347629796839705</v>
-      </c>
-      <c r="P60" s="90">
-        <f>(P59-K59)/K59</f>
-        <v>0.11811023622047245</v>
-      </c>
-      <c r="Q60" s="98">
-        <f>(Q59-I59)/I59</f>
-        <v>6.9999999999999979E-2</v>
-      </c>
-      <c r="R60" s="109">
-        <f>(R59-Q59)/Q59</f>
-        <v>-6.9999999999999937E-2</v>
-      </c>
-      <c r="S60" s="108">
-        <f t="shared" ref="S60" si="2">(S59-R59)/R59</f>
-        <v>3.9999999999999959E-2</v>
-      </c>
-      <c r="T60" s="108">
-        <f t="shared" ref="T60" si="3">(T59-S59)/S59</f>
-        <v>6.0000000000000102E-2</v>
-      </c>
-      <c r="U60" s="108">
-        <f t="shared" ref="U60" si="4">(U59-T59)/T59</f>
-        <v>8.0000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:21">
-      <c r="B61" s="89" t="s">
+      <c r="C67" s="92"/>
+      <c r="D67" s="95">
+        <f xml:space="preserve"> (D66 - C66)/C66</f>
+        <v>0.15076923076923074</v>
+      </c>
+      <c r="E67" s="92"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="93"/>
+      <c r="H67" s="93"/>
+      <c r="I67" s="95">
+        <f xml:space="preserve"> (I66 - D66)/D66</f>
+        <v>0.17112299465240638</v>
+      </c>
+      <c r="J67" s="93"/>
+      <c r="K67" s="93"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="93"/>
+      <c r="Q67" s="93"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="94"/>
+      <c r="T67" s="94"/>
+      <c r="U67" s="111"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="20"/>
+    </row>
+    <row r="68" spans="2:26">
+      <c r="B68" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="90">
-        <f>(J59-H59)/H59</f>
-        <v>0.793522267206479</v>
-      </c>
-      <c r="K61" s="98">
-        <f>(K59-J59)/J59</f>
-        <v>-0.13995485327313806</v>
-      </c>
-      <c r="L61" s="98">
-        <f>(L59-K59)/K59</f>
-        <v>-7.6115485564304253E-2</v>
-      </c>
-      <c r="M61" s="98">
-        <f>(M59-L59)/L59</f>
+      <c r="C68" s="93"/>
+      <c r="D68" s="93"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="93"/>
+      <c r="G68" s="93"/>
+      <c r="H68" s="93"/>
+      <c r="I68" s="93"/>
+      <c r="J68" s="93"/>
+      <c r="K68" s="93"/>
+      <c r="L68" s="93"/>
+      <c r="M68" s="93"/>
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="93"/>
+      <c r="Q68" s="93"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="94"/>
+      <c r="T68" s="94"/>
+      <c r="U68" s="111"/>
+      <c r="W68" s="54"/>
+      <c r="X68" s="20"/>
+    </row>
+    <row r="69" spans="2:26">
+      <c r="B69" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="96">
+        <f>C66/$C$52</f>
+        <v>6.245196003074558E-2</v>
+      </c>
+      <c r="D69" s="96">
+        <f>D66/$C$52</f>
+        <v>7.1867794004611837E-2</v>
+      </c>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="93"/>
+      <c r="H69" s="93"/>
+      <c r="I69" s="96">
+        <f>I66/$I$52</f>
+        <v>5.9868780754510659E-2</v>
+      </c>
+      <c r="J69" s="93"/>
+      <c r="K69" s="93"/>
+      <c r="L69" s="93"/>
+      <c r="M69" s="93"/>
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="93"/>
+      <c r="Q69" s="93"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="94"/>
+      <c r="U69" s="111"/>
+      <c r="W69" s="54"/>
+      <c r="X69" s="20"/>
+      <c r="Z69" s="155" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26">
+      <c r="B70" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="93"/>
+      <c r="D70" s="95">
+        <f xml:space="preserve"> (D69 - C69)/C69</f>
+        <v>0.15076923076923077</v>
+      </c>
+      <c r="E70" s="93"/>
+      <c r="F70" s="93"/>
+      <c r="G70" s="93"/>
+      <c r="H70" s="93"/>
+      <c r="I70" s="95">
+        <f xml:space="preserve"> (I69 - D69)/D69</f>
+        <v>-0.16695953196130089</v>
+      </c>
+      <c r="J70" s="93"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93"/>
+      <c r="M70" s="93"/>
+      <c r="N70" s="93"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="93"/>
+      <c r="Q70" s="93"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="94"/>
+      <c r="T70" s="94"/>
+      <c r="U70" s="111"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="20"/>
+    </row>
+    <row r="71" spans="2:26">
+      <c r="B71" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="111"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="20"/>
+    </row>
+    <row r="72" spans="2:26">
+      <c r="B72" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="92">
+        <v>18.25</v>
+      </c>
+      <c r="D72" s="92">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92">
+        <v>22</v>
+      </c>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="111"/>
+      <c r="W72" s="53">
+        <f>Q118</f>
+        <v>104.7554503130781</v>
+      </c>
+      <c r="X72" s="52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26">
+      <c r="B73" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="96"/>
+      <c r="D73" s="95">
+        <f xml:space="preserve"> (D72 - C72)/C72</f>
+        <v>9.0410958904109509E-2</v>
+      </c>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="95">
+        <f xml:space="preserve"> (I72 - D72)/D72</f>
+        <v>0.10552763819095486</v>
+      </c>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="94"/>
+      <c r="U73" s="111"/>
+      <c r="W73" s="66">
+        <f>(W72-W55)/W55</f>
+        <v>-0.32016710809865601</v>
+      </c>
+      <c r="X73" s="67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26">
+      <c r="B74" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="93"/>
+      <c r="I74" s="93"/>
+      <c r="J74" s="93"/>
+      <c r="K74" s="93"/>
+      <c r="L74" s="93"/>
+      <c r="M74" s="93"/>
+      <c r="N74" s="93"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="93"/>
+      <c r="Q74" s="93"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="94"/>
+      <c r="T74" s="94"/>
+      <c r="U74" s="111"/>
+    </row>
+    <row r="75" spans="2:26">
+      <c r="B75" s="108" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="96">
+        <f>C72/$C$52</f>
+        <v>7.0138355111452735E-2</v>
+      </c>
+      <c r="D75" s="96">
+        <f>D72/$C$52</f>
+        <v>7.6479631053036123E-2</v>
+      </c>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="96">
+        <f>I72/$I$52</f>
+        <v>6.0142154182613448E-2</v>
+      </c>
+      <c r="J75" s="93"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="93"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="93"/>
+      <c r="O75" s="93"/>
+      <c r="P75" s="93"/>
+      <c r="Q75" s="93"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="94"/>
+      <c r="T75" s="94"/>
+      <c r="U75" s="111"/>
+    </row>
+    <row r="76" spans="2:26">
+      <c r="B76" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="95">
+        <f xml:space="preserve"> (D75 - C75)/C75</f>
+        <v>9.0410958904109454E-2</v>
+      </c>
+      <c r="E76" s="93"/>
+      <c r="F76" s="93"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="93"/>
+      <c r="I76" s="95">
+        <f xml:space="preserve"> (I75 - D75)/D75</f>
+        <v>-0.21361866742130553</v>
+      </c>
+      <c r="J76" s="93"/>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="93"/>
+      <c r="Q76" s="93"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="94"/>
+      <c r="T76" s="94"/>
+      <c r="U76" s="111"/>
+    </row>
+    <row r="77" spans="2:26">
+      <c r="B77" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C77" s="93"/>
+      <c r="D77" s="93"/>
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="93"/>
+      <c r="H77" s="93"/>
+      <c r="I77" s="93"/>
+      <c r="J77" s="93"/>
+      <c r="K77" s="93"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="93"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="93"/>
+      <c r="Q77" s="93"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
+      <c r="T77" s="94"/>
+      <c r="U77" s="111"/>
+    </row>
+    <row r="78" spans="2:26">
+      <c r="B78" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="92">
+        <f>C72+C66</f>
+        <v>34.5</v>
+      </c>
+      <c r="D78" s="92">
+        <f>D72+D66</f>
+        <v>38.599999999999994</v>
+      </c>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92">
+        <f>I72+I66</f>
+        <v>43.9</v>
+      </c>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92">
+        <f>1.1*I78</f>
+        <v>48.29</v>
+      </c>
+      <c r="R78" s="92">
+        <f>0.91*Q78</f>
+        <v>43.943899999999999</v>
+      </c>
+      <c r="S78" s="92">
+        <f>1.05*R78</f>
+        <v>46.141095</v>
+      </c>
+      <c r="T78" s="92">
+        <f>1.1*S78</f>
+        <v>50.755204500000005</v>
+      </c>
+      <c r="U78" s="130">
+        <f>1.14*T78</f>
+        <v>57.860933129999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26">
+      <c r="B79" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="93"/>
+      <c r="D79" s="95">
+        <f xml:space="preserve"> (D78 - C78)/C78</f>
+        <v>0.11884057971014476</v>
+      </c>
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="G79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="I79" s="95">
+        <f xml:space="preserve"> (I78 - D78)/D78</f>
+        <v>0.13730569948186541</v>
+      </c>
+      <c r="J79" s="93"/>
+      <c r="K79" s="93"/>
+      <c r="L79" s="93"/>
+      <c r="M79" s="93"/>
+      <c r="N79" s="93"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="93"/>
+      <c r="Q79" s="96">
+        <f>(Q78-I78)/I78</f>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="R79" s="99">
+        <f>(R78-Q78)/Q78</f>
+        <v>-0.09</v>
+      </c>
+      <c r="S79" s="99">
+        <f t="shared" ref="S79:U79" si="12">(S78-R78)/R78</f>
+        <v>5.0000000000000017E-2</v>
+      </c>
+      <c r="T79" s="99">
+        <f t="shared" si="12"/>
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="U79" s="114">
+        <f t="shared" si="12"/>
+        <v>0.13999999999999987</v>
+      </c>
+    </row>
+    <row r="80" spans="2:26">
+      <c r="B80" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="G80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="I80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="93"/>
+      <c r="L80" s="93"/>
+      <c r="M80" s="93"/>
+      <c r="N80" s="93"/>
+      <c r="O80" s="93"/>
+      <c r="P80" s="93"/>
+      <c r="Q80" s="93"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
+      <c r="T80" s="94"/>
+      <c r="U80" s="111"/>
+    </row>
+    <row r="81" spans="2:21">
+      <c r="B81" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="96">
+        <f>C78/C$52</f>
+        <v>0.13259031514219832</v>
+      </c>
+      <c r="D81" s="96">
+        <f>D78/D$52</f>
+        <v>0.14061930783242257</v>
+      </c>
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="G81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="I81" s="96">
+        <f>I78/I$52</f>
+        <v>0.1200109349371241</v>
+      </c>
+      <c r="J81" s="93"/>
+      <c r="K81" s="93"/>
+      <c r="L81" s="93"/>
+      <c r="M81" s="93"/>
+      <c r="N81" s="93"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="93"/>
+      <c r="Q81" s="96">
+        <f>Q78/Q$52</f>
+        <v>0.12453964946305331</v>
+      </c>
+      <c r="R81" s="96">
+        <f>R78/R$52</f>
+        <v>0.11220899110037476</v>
+      </c>
+      <c r="S81" s="96">
+        <f>S78/S$52</f>
+        <v>0.11438780646154709</v>
+      </c>
+      <c r="T81" s="96">
+        <f>T78/T$52</f>
+        <v>0.11870432746009604</v>
+      </c>
+      <c r="U81" s="112">
+        <f>U78/U$52</f>
+        <v>0.12414948009588024</v>
+      </c>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="B82" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="93"/>
+      <c r="D82" s="95">
+        <f xml:space="preserve"> (D81 - C81)/C81</f>
+        <v>6.0554895594097102E-2</v>
+      </c>
+      <c r="E82" s="93"/>
+      <c r="F82" s="93"/>
+      <c r="G82" s="93"/>
+      <c r="H82" s="93"/>
+      <c r="I82" s="95">
+        <f xml:space="preserve"> (I81 - D81)/D81</f>
+        <v>-0.14655436165179875</v>
+      </c>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
+      <c r="T82" s="94"/>
+      <c r="U82" s="111"/>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="B83" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="93"/>
+      <c r="O83" s="93"/>
+      <c r="P83" s="93"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
+      <c r="T83" s="94"/>
+      <c r="U83" s="111"/>
+    </row>
+    <row r="84" spans="2:21">
+      <c r="B84" s="108"/>
+      <c r="C84" s="93"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="93"/>
+      <c r="M84" s="93"/>
+      <c r="N84" s="93"/>
+      <c r="O84" s="93"/>
+      <c r="P84" s="93"/>
+      <c r="Q84" s="93"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
+      <c r="T84" s="94"/>
+      <c r="U84" s="111"/>
+    </row>
+    <row r="85" spans="2:21">
+      <c r="B85" s="108"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="J85" s="93"/>
+      <c r="K85" s="93"/>
+      <c r="L85" s="93"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="93"/>
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
+      <c r="T85" s="94"/>
+      <c r="U85" s="111"/>
+    </row>
+    <row r="86" spans="2:21">
+      <c r="B86" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="92">
+        <f>C58-C78</f>
+        <v>63.899999999999977</v>
+      </c>
+      <c r="D86" s="92">
+        <f>D58-D78</f>
+        <v>66.299999999999983</v>
+      </c>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92">
+        <f>I58-I78</f>
+        <v>108.9</v>
+      </c>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="92"/>
+      <c r="P86" s="92"/>
+      <c r="Q86" s="92">
+        <f>Q58-Q78</f>
+        <v>115.20600000000002</v>
+      </c>
+      <c r="R86" s="92">
+        <f>R58-R78</f>
+        <v>108.10738000000002</v>
+      </c>
+      <c r="S86" s="92">
+        <f>S58-S78</f>
+        <v>111.99223620000001</v>
+      </c>
+      <c r="T86" s="92">
+        <f>T58-T78</f>
+        <v>116.86612657200003</v>
+      </c>
+      <c r="U86" s="130">
+        <f>U58-U78</f>
+        <v>123.17010442776004</v>
+      </c>
+    </row>
+    <row r="87" spans="2:21">
+      <c r="B87" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="93"/>
+      <c r="D87" s="95">
+        <f xml:space="preserve"> (D86 - C86)/C86</f>
+        <v>3.7558685446009495E-2</v>
+      </c>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+      <c r="G87" s="93"/>
+      <c r="H87" s="93"/>
+      <c r="I87" s="100">
+        <f xml:space="preserve"> (I86 - D86)/D86</f>
+        <v>0.6425339366515842</v>
+      </c>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
+      <c r="L87" s="93"/>
+      <c r="M87" s="93"/>
+      <c r="N87" s="93"/>
+      <c r="O87" s="93"/>
+      <c r="P87" s="93"/>
+      <c r="Q87" s="96">
+        <f>(Q86-I86)/I86</f>
+        <v>5.7906336088154375E-2</v>
+      </c>
+      <c r="R87" s="99">
+        <f>(R86-Q86)/Q86</f>
+        <v>-6.1616756071732337E-2</v>
+      </c>
+      <c r="S87" s="99">
+        <f>(S86-R86)/R86</f>
+        <v>3.5935161873315094E-2</v>
+      </c>
+      <c r="T87" s="99">
+        <f>(T86-S86)/S86</f>
+        <v>4.3519895105014604E-2</v>
+      </c>
+      <c r="U87" s="114">
+        <f>(U86-T86)/T86</f>
+        <v>5.3941873840374042E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:21">
+      <c r="B88" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="93"/>
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="93"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="94"/>
+      <c r="U88" s="111"/>
+    </row>
+    <row r="89" spans="2:21">
+      <c r="B89" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C89" s="101">
+        <f>C86/$C$52</f>
+        <v>0.24558032282859332</v>
+      </c>
+      <c r="D89" s="101">
+        <f>D86/$D$52</f>
+        <v>0.24153005464480867</v>
+      </c>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+      <c r="G89" s="93"/>
+      <c r="H89" s="93"/>
+      <c r="I89" s="96">
+        <f>I86/I$52</f>
+        <v>0.2977036632039366</v>
+      </c>
+      <c r="J89" s="93"/>
+      <c r="K89" s="93"/>
+      <c r="L89" s="93"/>
+      <c r="M89" s="93"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="93"/>
+      <c r="P89" s="93"/>
+      <c r="Q89" s="102">
+        <f>Q86/Q$52</f>
+        <v>0.29711565243405513</v>
+      </c>
+      <c r="R89" s="101">
+        <f>R86/R$52</f>
+        <v>0.27604787104250728</v>
+      </c>
+      <c r="S89" s="96">
+        <f>S86/S$52</f>
+        <v>0.27763853977980946</v>
+      </c>
+      <c r="T89" s="96">
+        <f>T86/T$52</f>
+        <v>0.27332201878126056</v>
+      </c>
+      <c r="U89" s="112">
+        <f>U86/U$52</f>
+        <v>0.2642802941616107</v>
+      </c>
+    </row>
+    <row r="90" spans="2:21">
+      <c r="B90" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="93"/>
+      <c r="D90" s="95">
+        <f xml:space="preserve"> (D89 - C89)/C89</f>
+        <v>-1.6492641336788204E-2</v>
+      </c>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+      <c r="G90" s="93"/>
+      <c r="H90" s="93"/>
+      <c r="I90" s="100">
+        <f xml:space="preserve"> (I89 - D89)/D89</f>
+        <v>0.23257399018824465</v>
+      </c>
+      <c r="J90" s="93"/>
+      <c r="K90" s="93"/>
+      <c r="L90" s="93"/>
+      <c r="M90" s="93"/>
+      <c r="N90" s="93"/>
+      <c r="O90" s="93"/>
+      <c r="P90" s="93"/>
+      <c r="Q90" s="93"/>
+      <c r="R90" s="94"/>
+      <c r="S90" s="94"/>
+      <c r="T90" s="94"/>
+      <c r="U90" s="111"/>
+    </row>
+    <row r="91" spans="2:21">
+      <c r="B91" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="93"/>
+      <c r="H91" s="93"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="93"/>
+      <c r="L91" s="93"/>
+      <c r="M91" s="93"/>
+      <c r="N91" s="93"/>
+      <c r="O91" s="93"/>
+      <c r="P91" s="93"/>
+      <c r="Q91" s="93"/>
+      <c r="R91" s="94"/>
+      <c r="S91" s="94"/>
+      <c r="T91" s="94"/>
+      <c r="U91" s="111"/>
+    </row>
+    <row r="92" spans="2:21">
+      <c r="B92" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="92">
+        <v>1.8</v>
+      </c>
+      <c r="D92" s="92">
+        <v>0.8</v>
+      </c>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92">
+        <v>0.26</v>
+      </c>
+      <c r="J92" s="93"/>
+      <c r="K92" s="93"/>
+      <c r="L92" s="93"/>
+      <c r="M92" s="93"/>
+      <c r="N92" s="93"/>
+      <c r="O92" s="93"/>
+      <c r="P92" s="93"/>
+      <c r="Q92" s="93"/>
+      <c r="R92" s="94"/>
+      <c r="S92" s="94"/>
+      <c r="T92" s="94"/>
+      <c r="U92" s="111"/>
+    </row>
+    <row r="93" spans="2:21">
+      <c r="B93" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="92">
+        <f>C92+C86</f>
+        <v>65.699999999999974</v>
+      </c>
+      <c r="D93" s="92">
+        <f>D92+D86</f>
+        <v>67.09999999999998</v>
+      </c>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="92">
+        <f>I92+I86</f>
+        <v>109.16000000000001</v>
+      </c>
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
+      <c r="L93" s="92"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="92"/>
+      <c r="P93" s="92"/>
+      <c r="Q93" s="92">
+        <f>(1+Q$87)*I93</f>
+        <v>115.48105564738295</v>
+      </c>
+      <c r="R93" s="92">
+        <f>(1+R$87)*Q93</f>
+        <v>108.365487610652</v>
+      </c>
+      <c r="S93" s="92">
+        <f>(1+S$87)*R93</f>
+        <v>112.25961894942149</v>
+      </c>
+      <c r="T93" s="92">
+        <f t="shared" ref="T93:U93" si="13">(1+T$87)*S93</f>
+        <v>117.14514579062923</v>
+      </c>
+      <c r="U93" s="130">
+        <f t="shared" si="13"/>
+        <v>123.46417446587958</v>
+      </c>
+    </row>
+    <row r="94" spans="2:21">
+      <c r="B94" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="92">
+        <v>10.5</v>
+      </c>
+      <c r="D94" s="92">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92">
+        <v>14.5</v>
+      </c>
+      <c r="J94" s="93"/>
+      <c r="K94" s="93"/>
+      <c r="L94" s="93"/>
+      <c r="M94" s="93"/>
+      <c r="N94" s="93"/>
+      <c r="O94" s="93"/>
+      <c r="P94" s="93"/>
+      <c r="Q94" s="93"/>
+      <c r="R94" s="94"/>
+      <c r="S94" s="94"/>
+      <c r="T94" s="94"/>
+      <c r="U94" s="111"/>
+    </row>
+    <row r="95" spans="2:21">
+      <c r="B95" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="93"/>
+      <c r="D95" s="100">
+        <f xml:space="preserve"> (D94 - C94)/C94</f>
+        <v>-7.6190476190476253E-2</v>
+      </c>
+      <c r="E95" s="93"/>
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="93"/>
+      <c r="I95" s="100">
+        <f xml:space="preserve"> (I94 - D94)/D94</f>
+        <v>0.4948453608247424</v>
+      </c>
+      <c r="J95" s="93"/>
+      <c r="K95" s="93"/>
+      <c r="L95" s="93"/>
+      <c r="M95" s="93"/>
+      <c r="N95" s="93"/>
+      <c r="O95" s="93"/>
+      <c r="P95" s="93"/>
+      <c r="Q95" s="93"/>
+      <c r="R95" s="94"/>
+      <c r="S95" s="94"/>
+      <c r="T95" s="94"/>
+      <c r="U95" s="111"/>
+    </row>
+    <row r="96" spans="2:21">
+      <c r="B96" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="93"/>
+      <c r="D96" s="93"/>
+      <c r="E96" s="93"/>
+      <c r="F96" s="93"/>
+      <c r="G96" s="93"/>
+      <c r="H96" s="93"/>
+      <c r="I96" s="93"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="93"/>
+      <c r="L96" s="93"/>
+      <c r="M96" s="93"/>
+      <c r="N96" s="93"/>
+      <c r="O96" s="93"/>
+      <c r="P96" s="93"/>
+      <c r="Q96" s="93"/>
+      <c r="R96" s="94"/>
+      <c r="S96" s="94"/>
+      <c r="T96" s="94"/>
+      <c r="U96" s="111"/>
+    </row>
+    <row r="97" spans="2:21">
+      <c r="B97" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97" s="101">
+        <f>C94/$C$52</f>
+        <v>4.0353574173712534E-2</v>
+      </c>
+      <c r="D97" s="101">
+        <f>D94/$C$52</f>
+        <v>3.7279016141429672E-2</v>
+      </c>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="93"/>
+      <c r="I97" s="101">
+        <f>I94/$C$52</f>
+        <v>5.572636433512683E-2</v>
+      </c>
+      <c r="J97" s="93"/>
+      <c r="K97" s="93"/>
+      <c r="L97" s="93"/>
+      <c r="M97" s="93"/>
+      <c r="N97" s="93"/>
+      <c r="O97" s="93"/>
+      <c r="P97" s="93"/>
+      <c r="Q97" s="93"/>
+      <c r="R97" s="94"/>
+      <c r="S97" s="94"/>
+      <c r="T97" s="94"/>
+      <c r="U97" s="111"/>
+    </row>
+    <row r="98" spans="2:21">
+      <c r="B98" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="93"/>
+      <c r="D98" s="95">
+        <f xml:space="preserve"> (D97 - C97)/C97</f>
+        <v>-7.6190476190476253E-2</v>
+      </c>
+      <c r="E98" s="93"/>
+      <c r="F98" s="93"/>
+      <c r="G98" s="93"/>
+      <c r="H98" s="93"/>
+      <c r="I98" s="100">
+        <f xml:space="preserve"> (I97 - D97)/D97</f>
+        <v>0.49484536082474229</v>
+      </c>
+      <c r="J98" s="93"/>
+      <c r="K98" s="93"/>
+      <c r="L98" s="93"/>
+      <c r="M98" s="93"/>
+      <c r="N98" s="93"/>
+      <c r="O98" s="93"/>
+      <c r="P98" s="93"/>
+      <c r="Q98" s="93"/>
+      <c r="R98" s="94"/>
+      <c r="S98" s="94"/>
+      <c r="T98" s="94"/>
+      <c r="U98" s="111"/>
+    </row>
+    <row r="99" spans="2:21">
+      <c r="B99" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="93"/>
+      <c r="H99" s="93"/>
+      <c r="I99" s="93"/>
+      <c r="J99" s="93"/>
+      <c r="K99" s="93"/>
+      <c r="L99" s="93"/>
+      <c r="M99" s="93"/>
+      <c r="N99" s="93"/>
+      <c r="O99" s="93"/>
+      <c r="P99" s="93"/>
+      <c r="Q99" s="93"/>
+      <c r="R99" s="94"/>
+      <c r="S99" s="94"/>
+      <c r="T99" s="94"/>
+      <c r="U99" s="111"/>
+    </row>
+    <row r="100" spans="2:21">
+      <c r="B100" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="92">
+        <f>C93-C94</f>
+        <v>55.199999999999974</v>
+      </c>
+      <c r="D100" s="92">
+        <f>D93-D94</f>
+        <v>57.399999999999977</v>
+      </c>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92">
+        <f>I93-I94</f>
+        <v>94.660000000000011</v>
+      </c>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="92"/>
+      <c r="P100" s="92"/>
+      <c r="Q100" s="92">
+        <f>(1+Q$87)*I100</f>
+        <v>100.14141377410471</v>
+      </c>
+      <c r="R100" s="92">
+        <f>(1+R$87)*Q100</f>
+        <v>93.971024708907279</v>
+      </c>
+      <c r="S100" s="92">
+        <f t="shared" ref="S100:U100" si="14">(1+S$87)*R100</f>
+        <v>97.347888693223155</v>
+      </c>
+      <c r="T100" s="92">
+        <f t="shared" si="14"/>
+        <v>101.58445859784686</v>
+      </c>
+      <c r="U100" s="130">
+        <f t="shared" si="14"/>
+        <v>107.06411464767461</v>
+      </c>
+    </row>
+    <row r="101" spans="2:21">
+      <c r="B101" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="93"/>
+      <c r="D101" s="100">
+        <f xml:space="preserve"> (D100 - C100)/C100</f>
+        <v>3.9855072463768189E-2</v>
+      </c>
+      <c r="E101" s="93"/>
+      <c r="F101" s="93"/>
+      <c r="G101" s="93"/>
+      <c r="H101" s="93"/>
+      <c r="I101" s="100">
+        <f xml:space="preserve"> (I100 - D100)/D100</f>
+        <v>0.64912891986062804</v>
+      </c>
+      <c r="J101" s="93"/>
+      <c r="K101" s="93"/>
+      <c r="L101" s="93"/>
+      <c r="M101" s="93"/>
+      <c r="N101" s="93"/>
+      <c r="O101" s="93"/>
+      <c r="P101" s="93"/>
+      <c r="Q101" s="93"/>
+      <c r="R101" s="94"/>
+      <c r="S101" s="94"/>
+      <c r="T101" s="94"/>
+      <c r="U101" s="111"/>
+    </row>
+    <row r="102" spans="2:21">
+      <c r="B102" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" s="93"/>
+      <c r="D102" s="93"/>
+      <c r="E102" s="93"/>
+      <c r="F102" s="93"/>
+      <c r="G102" s="93"/>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="93"/>
+      <c r="L102" s="93"/>
+      <c r="M102" s="93"/>
+      <c r="N102" s="93"/>
+      <c r="O102" s="93"/>
+      <c r="P102" s="93"/>
+      <c r="Q102" s="93"/>
+      <c r="R102" s="94"/>
+      <c r="S102" s="94"/>
+      <c r="T102" s="94"/>
+      <c r="U102" s="111"/>
+    </row>
+    <row r="103" spans="2:21">
+      <c r="B103" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" s="96">
+        <f>C100/$C$52</f>
+        <v>0.21214450422751721</v>
+      </c>
+      <c r="D103" s="96">
+        <f>D100/$C$52</f>
+        <v>0.22059953881629507</v>
+      </c>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="93"/>
+      <c r="H103" s="93"/>
+      <c r="I103" s="96">
+        <f>I100/$C$52</f>
+        <v>0.36379707916986936</v>
+      </c>
+      <c r="J103" s="93"/>
+      <c r="K103" s="93"/>
+      <c r="L103" s="93"/>
+      <c r="M103" s="93"/>
+      <c r="N103" s="93"/>
+      <c r="O103" s="93"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="102">
+        <f>Q100/Q$52</f>
+        <v>0.25826416583478107</v>
+      </c>
+      <c r="R103" s="102">
+        <f>R100/R$52</f>
+        <v>0.23995125319452471</v>
+      </c>
+      <c r="S103" s="102">
+        <f>S100/S$52</f>
+        <v>0.241333922640558</v>
+      </c>
+      <c r="T103" s="102">
+        <f>T100/T$52</f>
+        <v>0.23758183928222337</v>
+      </c>
+      <c r="U103" s="116">
+        <f>U100/U$52</f>
+        <v>0.22972243016839367</v>
+      </c>
+    </row>
+    <row r="104" spans="2:21">
+      <c r="B104" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="93"/>
+      <c r="D104" s="95">
+        <f xml:space="preserve"> (D103 - C103)/C103</f>
+        <v>3.9855072463768119E-2</v>
+      </c>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="93"/>
+      <c r="H104" s="93"/>
+      <c r="I104" s="100">
+        <f xml:space="preserve"> (I103 - D103)/D103</f>
+        <v>0.64912891986062793</v>
+      </c>
+      <c r="J104" s="93"/>
+      <c r="K104" s="93"/>
+      <c r="L104" s="93"/>
+      <c r="M104" s="93"/>
+      <c r="N104" s="93"/>
+      <c r="O104" s="93"/>
+      <c r="P104" s="93"/>
+      <c r="Q104" s="93"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="94"/>
+      <c r="T104" s="94"/>
+      <c r="U104" s="111"/>
+    </row>
+    <row r="105" spans="2:21">
+      <c r="B105" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="93"/>
+      <c r="D105" s="93"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="93"/>
+      <c r="H105" s="93"/>
+      <c r="I105" s="93"/>
+      <c r="J105" s="93"/>
+      <c r="K105" s="93"/>
+      <c r="L105" s="93"/>
+      <c r="M105" s="93"/>
+      <c r="N105" s="93"/>
+      <c r="O105" s="93"/>
+      <c r="P105" s="93"/>
+      <c r="Q105" s="93"/>
+      <c r="R105" s="94"/>
+      <c r="S105" s="94"/>
+      <c r="T105" s="94"/>
+      <c r="U105" s="111"/>
+    </row>
+    <row r="106" spans="2:21">
+      <c r="B106" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="93"/>
+      <c r="D106" s="93"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="93"/>
+      <c r="H106" s="93"/>
+      <c r="I106" s="93"/>
+      <c r="J106" s="93"/>
+      <c r="K106" s="93"/>
+      <c r="L106" s="93"/>
+      <c r="M106" s="93"/>
+      <c r="N106" s="93"/>
+      <c r="O106" s="93"/>
+      <c r="P106" s="93"/>
+      <c r="Q106" s="93"/>
+      <c r="R106" s="94"/>
+      <c r="S106" s="94"/>
+      <c r="T106" s="94"/>
+      <c r="U106" s="111"/>
+    </row>
+    <row r="107" spans="2:21">
+      <c r="B107" s="113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="93"/>
+      <c r="D107" s="93"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="93"/>
+      <c r="H107" s="93"/>
+      <c r="I107" s="93"/>
+      <c r="J107" s="93"/>
+      <c r="K107" s="93"/>
+      <c r="L107" s="93"/>
+      <c r="M107" s="93"/>
+      <c r="N107" s="93"/>
+      <c r="O107" s="93"/>
+      <c r="P107" s="93"/>
+      <c r="Q107" s="93"/>
+      <c r="R107" s="94"/>
+      <c r="S107" s="94"/>
+      <c r="T107" s="94"/>
+      <c r="U107" s="111"/>
+    </row>
+    <row r="108" spans="2:21">
+      <c r="B108" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="93"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="93"/>
+      <c r="F108" s="93"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="93"/>
+      <c r="I108" s="93"/>
+      <c r="J108" s="93"/>
+      <c r="K108" s="93"/>
+      <c r="L108" s="93"/>
+      <c r="M108" s="93"/>
+      <c r="N108" s="93"/>
+      <c r="O108" s="93"/>
+      <c r="P108" s="93"/>
+      <c r="Q108" s="93"/>
+      <c r="R108" s="94"/>
+      <c r="S108" s="94"/>
+      <c r="T108" s="94"/>
+      <c r="U108" s="111"/>
+    </row>
+    <row r="109" spans="2:21">
+      <c r="B109" s="108"/>
+      <c r="C109" s="93"/>
+      <c r="D109" s="93"/>
+      <c r="E109" s="93"/>
+      <c r="F109" s="93"/>
+      <c r="G109" s="93"/>
+      <c r="H109" s="93"/>
+      <c r="I109" s="93"/>
+      <c r="J109" s="93"/>
+      <c r="K109" s="93"/>
+      <c r="L109" s="93"/>
+      <c r="M109" s="93"/>
+      <c r="N109" s="93"/>
+      <c r="O109" s="93"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="94"/>
+      <c r="S109" s="94"/>
+      <c r="T109" s="94"/>
+      <c r="U109" s="111"/>
+    </row>
+    <row r="110" spans="2:21">
+      <c r="B110" s="150"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="94"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="94"/>
+      <c r="G110" s="94"/>
+      <c r="H110" s="94"/>
+      <c r="I110" s="94"/>
+      <c r="J110" s="93"/>
+      <c r="K110" s="93"/>
+      <c r="L110" s="93"/>
+      <c r="M110" s="93"/>
+      <c r="N110" s="93"/>
+      <c r="O110" s="93"/>
+      <c r="P110" s="93"/>
+      <c r="Q110" s="93"/>
+      <c r="R110" s="94"/>
+      <c r="S110" s="94"/>
+      <c r="T110" s="94"/>
+      <c r="U110" s="111"/>
+    </row>
+    <row r="111" spans="2:21">
+      <c r="B111" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="92">
+        <f>C100*$W$65</f>
+        <v>1379.9999999999993</v>
+      </c>
+      <c r="D111" s="92">
+        <f>D100*$W$65</f>
+        <v>1434.9999999999995</v>
+      </c>
+      <c r="E111" s="92">
+        <f>E100*$W$65</f>
         <v>0</v>
       </c>
-      <c r="N61" s="83"/>
-      <c r="O61" s="90">
-        <f>(O59-M59)/M59</f>
-        <v>0.53977272727272718</v>
-      </c>
-      <c r="P61" s="98">
-        <f>(P59-O59)/O59</f>
-        <v>-0.21402214022140237</v>
-      </c>
-      <c r="Q61" s="83"/>
-    </row>
-    <row r="62" spans="2:21">
-      <c r="B62" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="98">
-        <f>C59/C53</f>
-        <v>0.37817063797079165</v>
-      </c>
-      <c r="D62" s="98">
-        <f>D59/D53</f>
-        <v>0.38214936247723125</v>
-      </c>
-      <c r="E62" s="98">
-        <f>E59/E53</f>
-        <v>0.38344226579520696</v>
-      </c>
-      <c r="F62" s="98">
-        <f>F59/F53</f>
-        <v>0.38421955403087477</v>
-      </c>
-      <c r="G62" s="98">
-        <f>G59/G53</f>
-        <v>0.38023450586264662</v>
-      </c>
-      <c r="H62" s="98">
-        <f>H59/H53</f>
-        <v>0.38176197836166914</v>
-      </c>
-      <c r="I62" s="98">
-        <f>I59/I53</f>
-        <v>0.41771459814106071</v>
-      </c>
-      <c r="J62" s="98">
-        <f>J59/J53</f>
-        <v>0.39766606822262129</v>
-      </c>
-      <c r="K62" s="98">
-        <f>K59/K53</f>
-        <v>0.42522321428571425</v>
-      </c>
-      <c r="L62" s="98">
-        <f>L59/L53</f>
-        <v>0.43243243243243246</v>
-      </c>
-      <c r="M62" s="98">
-        <f>M59/M53</f>
-        <v>0.42206235011990406</v>
-      </c>
-      <c r="N62" s="98">
-        <f>N59/N53</f>
-        <v>0.43761301989150087</v>
-      </c>
-      <c r="O62" s="98">
-        <f>O59/O53</f>
-        <v>0.4374495560936239</v>
-      </c>
-      <c r="P62" s="98">
-        <f>P59/P53</f>
-        <v>0.43782117163412121</v>
-      </c>
-      <c r="Q62" s="98">
-        <f>Q59/Q53</f>
-        <v>0.42165530189710843</v>
-      </c>
-      <c r="R62" s="98">
-        <f>R59/R53</f>
-        <v>0.38825686214288202</v>
-      </c>
-      <c r="S62" s="98">
-        <f>S59/S53</f>
-        <v>0.39202634624135657</v>
-      </c>
-      <c r="T62" s="98">
-        <f>T59/T53</f>
-        <v>0.39202634624135663</v>
-      </c>
-      <c r="U62" s="98">
-        <f>U59/U53</f>
-        <v>0.38842977425749092</v>
-      </c>
-    </row>
-    <row r="63" spans="2:21">
-      <c r="B63" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="90">
-        <f xml:space="preserve"> (D62 - C62)/C62</f>
-        <v>1.0520976794467321E-2</v>
-      </c>
-      <c r="E63" s="90">
+      <c r="F111" s="92">
+        <f>F100*$W$65</f>
         <v>0</v>
       </c>
-      <c r="F63" s="98">
-        <v>0.02</v>
-      </c>
-      <c r="G63" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="H63" s="98">
-        <v>0.01</v>
-      </c>
-      <c r="I63" s="90">
-        <f xml:space="preserve"> (I62 - D62)/D62</f>
-        <v>9.3066322113643379E-2</v>
-      </c>
-      <c r="J63" s="90">
-        <f xml:space="preserve"> (J62 - E62)/E62</f>
-        <v>3.7095030194222611E-2</v>
-      </c>
-      <c r="K63" s="90">
-        <f xml:space="preserve"> (K62 - F62)/F62</f>
-        <v>0.10671934789540811</v>
-      </c>
-      <c r="L63" s="90">
-        <f xml:space="preserve"> (L62 - G62)/G62</f>
-        <v>0.1372782474104059</v>
-      </c>
-      <c r="M63" s="90">
-        <f xml:space="preserve"> (M62 - H62)/H62</f>
-        <v>0.10556413169059919</v>
-      </c>
-      <c r="N63" s="98">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="O63" s="90">
-        <f>(O62-J62)/J62</f>
-        <v>0.1000424503121826</v>
-      </c>
-      <c r="P63" s="90">
-        <f>(P62-K62)/K62</f>
-        <v>2.9626692346909816E-2</v>
-      </c>
-      <c r="Q63" s="83"/>
-    </row>
-    <row r="64" spans="2:21">
-      <c r="B64" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="90">
-        <f>(J62-H62)/H62</f>
-        <v>4.1659700971805852E-2</v>
-      </c>
-      <c r="K64" s="98">
-        <f>(K62-J62)/J62</f>
-        <v>6.9297202515317249E-2</v>
-      </c>
-      <c r="L64" s="98">
-        <f>(L62-K62)/K62</f>
-        <v>1.6953961835851752E-2</v>
-      </c>
-      <c r="M64" s="98">
-        <f>(M62-L62)/L62</f>
-        <v>-2.3980815347721913E-2</v>
-      </c>
-      <c r="N64" s="83"/>
-      <c r="O64" s="90">
-        <f>(O62-M62)/M62</f>
-        <v>3.6457186880915766E-2</v>
-      </c>
-      <c r="P64" s="98">
-        <f>(P62-O62)/O62</f>
-        <v>8.4950489792649699E-4</v>
-      </c>
-      <c r="Q64" s="83"/>
-    </row>
-    <row r="65" spans="2:17">
-      <c r="B65" s="95"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
-    </row>
-    <row r="66" spans="2:17">
-      <c r="B66" s="95"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-    </row>
-    <row r="67" spans="2:17">
-      <c r="B67" s="95"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-    </row>
-    <row r="68" spans="2:17">
-      <c r="B68" s="95"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="83"/>
-    </row>
-    <row r="69" spans="2:17">
-      <c r="B69" s="95" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="96">
-        <v>16.25</v>
-      </c>
-      <c r="D69" s="96">
-        <v>18.7</v>
-      </c>
-      <c r="E69" s="96"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="96">
-        <v>21.9</v>
-      </c>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="83"/>
-    </row>
-    <row r="70" spans="2:17">
-      <c r="B70" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="96"/>
-      <c r="D70" s="90">
-        <f xml:space="preserve"> (D69 - C69)/C69</f>
-        <v>0.15076923076923074</v>
-      </c>
-      <c r="E70" s="96"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="90">
-        <f xml:space="preserve"> (I69 - D69)/D69</f>
-        <v>0.17112299465240638</v>
-      </c>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="83"/>
-    </row>
-    <row r="71" spans="2:17">
-      <c r="B71" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="83"/>
-    </row>
-    <row r="72" spans="2:17">
-      <c r="B72" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="C72" s="98">
-        <f>C69/$C$53</f>
-        <v>6.245196003074558E-2</v>
-      </c>
-      <c r="D72" s="98">
-        <f>D69/$C$53</f>
-        <v>7.1867794004611837E-2</v>
-      </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="98">
-        <f>I69/$I$53</f>
-        <v>5.9868780754510659E-2</v>
-      </c>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="83"/>
-    </row>
-    <row r="73" spans="2:17">
-      <c r="B73" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C73" s="83"/>
-      <c r="D73" s="90">
-        <f xml:space="preserve"> (D72 - C72)/C72</f>
-        <v>0.15076923076923077</v>
-      </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="90">
-        <f xml:space="preserve"> (I72 - D72)/D72</f>
-        <v>-0.16695953196130089</v>
-      </c>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="83"/>
-    </row>
-    <row r="74" spans="2:17">
-      <c r="B74" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="83"/>
-    </row>
-    <row r="75" spans="2:17">
-      <c r="B75" s="95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C75" s="104">
-        <v>18.25</v>
-      </c>
-      <c r="D75" s="83">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="96">
-        <v>22</v>
-      </c>
-      <c r="J75" s="83"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
-      <c r="Q75" s="83"/>
-    </row>
-    <row r="76" spans="2:17">
-      <c r="B76" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="90">
-        <f xml:space="preserve"> (D75 - C75)/C75</f>
-        <v>9.0410958904109509E-2</v>
-      </c>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="90">
-        <f xml:space="preserve"> (I75 - D75)/D75</f>
-        <v>0.10552763819095486</v>
-      </c>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-    </row>
-    <row r="77" spans="2:17">
-      <c r="B77" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-    </row>
-    <row r="78" spans="2:17">
-      <c r="B78" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="98">
-        <f>C75/$C$53</f>
-        <v>7.0138355111452735E-2</v>
-      </c>
-      <c r="D78" s="98">
-        <f>D75/$C$53</f>
-        <v>7.6479631053036123E-2</v>
-      </c>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="98">
-        <f>I75/$I$53</f>
-        <v>6.0142154182613448E-2</v>
-      </c>
-      <c r="J78" s="83"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="83"/>
-      <c r="M78" s="83"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83"/>
-      <c r="Q78" s="83"/>
-    </row>
-    <row r="79" spans="2:17">
-      <c r="B79" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="83"/>
-      <c r="D79" s="90">
-        <f xml:space="preserve"> (D78 - C78)/C78</f>
-        <v>9.0410958904109454E-2</v>
-      </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="90">
-        <f xml:space="preserve"> (I78 - D78)/D78</f>
-        <v>-0.21361866742130553</v>
-      </c>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-    </row>
-    <row r="80" spans="2:17">
-      <c r="B80" s="89" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="83"/>
-      <c r="D80" s="83"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83"/>
-      <c r="Q80" s="83"/>
-    </row>
-    <row r="81" spans="2:21">
-      <c r="B81" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C81" s="83">
-        <f>C75+C69</f>
-        <v>34.5</v>
-      </c>
-      <c r="D81" s="83">
-        <f>D75+D69</f>
-        <v>38.599999999999994</v>
-      </c>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="96">
-        <f>I75+I69</f>
-        <v>43.9</v>
-      </c>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83"/>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83"/>
-      <c r="Q81" s="83">
-        <f>1.1*I81</f>
-        <v>48.29</v>
-      </c>
-      <c r="R81">
-        <f>0.91*Q81</f>
-        <v>43.943899999999999</v>
-      </c>
-      <c r="S81">
-        <f>1.05*R81</f>
-        <v>46.141095</v>
-      </c>
-      <c r="T81">
-        <f>1.1*S81</f>
-        <v>50.755204500000005</v>
-      </c>
-      <c r="U81">
-        <f>1.14*T81</f>
-        <v>57.860933129999999</v>
-      </c>
-    </row>
-    <row r="82" spans="2:21">
-      <c r="B82" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C82" s="83"/>
-      <c r="D82" s="90">
-        <f xml:space="preserve"> (D81 - C81)/C81</f>
-        <v>0.11884057971014476</v>
-      </c>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="90">
-        <f xml:space="preserve"> (I81 - D81)/D81</f>
-        <v>0.13730569948186541</v>
-      </c>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="98">
-        <f>(Q81-I81)/I81</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="R82" s="109">
-        <f>(R81-Q81)/Q81</f>
-        <v>-0.09</v>
-      </c>
-      <c r="S82" s="109">
-        <f t="shared" ref="S82:U82" si="5">(S81-R81)/R81</f>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="T82" s="109">
-        <f t="shared" si="5"/>
-        <v>0.1000000000000001</v>
-      </c>
-      <c r="U82" s="109">
-        <f t="shared" si="5"/>
-        <v>0.13999999999999987</v>
-      </c>
-    </row>
-    <row r="83" spans="2:21">
-      <c r="B83" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
-    </row>
-    <row r="84" spans="2:21">
-      <c r="B84" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="C84" s="98">
-        <f>C81/C$53</f>
-        <v>0.13259031514219832</v>
-      </c>
-      <c r="D84" s="98">
-        <f>D81/D$53</f>
-        <v>0.14061930783242257</v>
-      </c>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="98">
-        <f>I81/I$53</f>
-        <v>0.1200109349371241</v>
-      </c>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="98">
-        <f>Q81/Q$53</f>
-        <v>0.12453964946305331</v>
-      </c>
-      <c r="R84" s="98">
-        <f>R81/R$53</f>
-        <v>0.11220899110037476</v>
-      </c>
-      <c r="S84" s="98">
-        <f>S81/S$53</f>
-        <v>0.11438780646154709</v>
-      </c>
-      <c r="T84" s="98">
-        <f>T81/T$53</f>
-        <v>0.11870432746009604</v>
-      </c>
-      <c r="U84" s="98">
-        <f>U81/U$53</f>
-        <v>0.12414948009588024</v>
-      </c>
-    </row>
-    <row r="85" spans="2:21">
-      <c r="B85" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="83"/>
-      <c r="D85" s="90">
-        <f xml:space="preserve"> (D84 - C84)/C84</f>
-        <v>6.0554895594097102E-2</v>
-      </c>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="90">
-        <f xml:space="preserve"> (I84 - D84)/D84</f>
-        <v>-0.14655436165179875</v>
-      </c>
-      <c r="J85" s="83"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="83"/>
-      <c r="M85" s="83"/>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
-      <c r="Q85" s="83"/>
-    </row>
-    <row r="86" spans="2:21">
-      <c r="B86" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-    </row>
-    <row r="87" spans="2:21">
-      <c r="B87" s="103"/>
-      <c r="C87" s="83"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-      <c r="K87" s="83"/>
-      <c r="L87" s="83"/>
-      <c r="M87" s="83"/>
-      <c r="N87" s="83"/>
-      <c r="O87" s="83"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-    </row>
-    <row r="88" spans="2:21">
-      <c r="B88" s="95"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-    </row>
-    <row r="89" spans="2:21">
-      <c r="B89" s="95"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-    </row>
-    <row r="90" spans="2:21">
-      <c r="B90" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C90" s="97">
-        <f>C59-C81</f>
-        <v>63.899999999999977</v>
-      </c>
-      <c r="D90" s="97">
-        <f>D59-D81</f>
-        <v>66.299999999999983</v>
-      </c>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="97">
-        <f>I59-I81</f>
-        <v>108.9</v>
-      </c>
-      <c r="J90" s="83"/>
-      <c r="K90" s="83"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83"/>
-      <c r="Q90" s="97">
-        <f>Q59-Q81</f>
-        <v>115.20600000000002</v>
-      </c>
-      <c r="R90" s="97">
-        <f>R59-R81</f>
-        <v>108.10738000000002</v>
-      </c>
-      <c r="S90" s="97">
-        <f>S59-S81</f>
-        <v>111.99223620000001</v>
-      </c>
-      <c r="T90" s="97">
-        <f>T59-T81</f>
-        <v>116.86612657200003</v>
-      </c>
-      <c r="U90" s="97">
-        <f>U59-U81</f>
-        <v>123.17010442776004</v>
-      </c>
-    </row>
-    <row r="91" spans="2:21">
-      <c r="B91" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="83"/>
-      <c r="D91" s="90">
-        <f xml:space="preserve"> (D90 - C90)/C90</f>
-        <v>3.7558685446009495E-2</v>
-      </c>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="107">
-        <f xml:space="preserve"> (I90 - D90)/D90</f>
-        <v>0.6425339366515842</v>
-      </c>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83"/>
-      <c r="Q91" s="98">
-        <f>(Q90-I90)/I90</f>
-        <v>5.7906336088154375E-2</v>
-      </c>
-      <c r="R91" s="109">
-        <f>(R90-Q90)/Q90</f>
-        <v>-6.1616756071732337E-2</v>
-      </c>
-      <c r="S91" s="109">
-        <f>(S90-R90)/R90</f>
-        <v>3.5935161873315094E-2</v>
-      </c>
-      <c r="T91" s="109">
-        <f>(T90-S90)/S90</f>
-        <v>4.3519895105014604E-2</v>
-      </c>
-      <c r="U91" s="109">
-        <f>(U90-T90)/T90</f>
-        <v>5.3941873840374042E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:21">
-      <c r="B92" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="83"/>
-      <c r="Q92" s="83"/>
-    </row>
-    <row r="93" spans="2:21">
-      <c r="B93" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="106">
-        <f>C90/$C$53</f>
-        <v>0.24558032282859332</v>
-      </c>
-      <c r="D93" s="106">
-        <f>D90/$D$53</f>
-        <v>0.24153005464480867</v>
-      </c>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="98">
-        <f>I90/I$53</f>
-        <v>0.2977036632039366</v>
-      </c>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="105">
-        <f>Q90/Q$53</f>
-        <v>0.29711565243405513</v>
-      </c>
-      <c r="R93" s="106">
-        <f>R90/R$53</f>
-        <v>0.27604787104250728</v>
-      </c>
-      <c r="S93" s="98">
-        <f>S90/S$53</f>
-        <v>0.27763853977980946</v>
-      </c>
-      <c r="T93" s="98">
-        <f>T90/T$53</f>
-        <v>0.27332201878126056</v>
-      </c>
-      <c r="U93" s="98">
-        <f>U90/U$53</f>
-        <v>0.2642802941616107</v>
-      </c>
-    </row>
-    <row r="94" spans="2:21">
-      <c r="B94" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="83"/>
-      <c r="D94" s="90">
-        <f xml:space="preserve"> (D93 - C93)/C93</f>
-        <v>-1.6492641336788204E-2</v>
-      </c>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="107">
-        <f xml:space="preserve"> (I93 - D93)/D93</f>
-        <v>0.23257399018824465</v>
-      </c>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-    </row>
-    <row r="95" spans="2:21">
-      <c r="B95" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="83"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="83"/>
-      <c r="L95" s="83"/>
-      <c r="M95" s="83"/>
-      <c r="N95" s="83"/>
-      <c r="O95" s="83"/>
-      <c r="P95" s="83"/>
-      <c r="Q95" s="83"/>
-    </row>
-    <row r="96" spans="2:21">
-      <c r="B96" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="C96" s="83">
-        <v>1.8</v>
-      </c>
-      <c r="D96" s="83">
-        <v>0.8</v>
-      </c>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="104">
-        <v>0.26</v>
-      </c>
-      <c r="J96" s="83"/>
-      <c r="K96" s="83"/>
-      <c r="L96" s="83"/>
-      <c r="M96" s="83"/>
-      <c r="N96" s="83"/>
-      <c r="O96" s="83"/>
-      <c r="P96" s="83"/>
-      <c r="Q96" s="83"/>
-    </row>
-    <row r="97" spans="2:21">
-      <c r="B97" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="97">
-        <f>C96+C90</f>
-        <v>65.699999999999974</v>
-      </c>
-      <c r="D97" s="97">
-        <f>D96+D90</f>
-        <v>67.09999999999998</v>
-      </c>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="97">
-        <f>I96+I90</f>
-        <v>109.16000000000001</v>
-      </c>
-      <c r="J97" s="83"/>
-      <c r="K97" s="83"/>
-      <c r="L97" s="83"/>
-      <c r="M97" s="83"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83"/>
-      <c r="Q97" s="83">
-        <f>(1+Q$91)*I97</f>
-        <v>115.48105564738295</v>
-      </c>
-      <c r="R97" s="83">
-        <f>(1+R$91)*Q97</f>
-        <v>108.365487610652</v>
-      </c>
-      <c r="S97" s="83">
-        <f>(1+S$91)*R97</f>
-        <v>112.25961894942149</v>
-      </c>
-      <c r="T97" s="83">
-        <f t="shared" ref="S97:U97" si="6">(1+T$91)*S97</f>
-        <v>117.14514579062923</v>
-      </c>
-      <c r="U97" s="83">
-        <f t="shared" si="6"/>
-        <v>123.46417446587958</v>
-      </c>
-    </row>
-    <row r="98" spans="2:21">
-      <c r="B98" s="95" t="s">
-        <v>109</v>
-      </c>
-      <c r="C98" s="83">
-        <v>10.5</v>
-      </c>
-      <c r="D98" s="83">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="83">
-        <v>14.5</v>
-      </c>
-      <c r="J98" s="83"/>
-      <c r="K98" s="83"/>
-      <c r="L98" s="83"/>
-      <c r="M98" s="83"/>
-      <c r="N98" s="83"/>
-      <c r="O98" s="83"/>
-      <c r="P98" s="83"/>
-      <c r="Q98" s="83"/>
-    </row>
-    <row r="99" spans="2:21">
-      <c r="B99" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="83"/>
-      <c r="D99" s="107">
-        <f xml:space="preserve"> (D98 - C98)/C98</f>
-        <v>-7.6190476190476253E-2</v>
-      </c>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="107">
-        <f xml:space="preserve"> (I98 - D98)/D98</f>
-        <v>0.4948453608247424</v>
-      </c>
-      <c r="J99" s="83"/>
-      <c r="K99" s="83"/>
-      <c r="L99" s="83"/>
-      <c r="M99" s="83"/>
-      <c r="N99" s="83"/>
-      <c r="O99" s="83"/>
-      <c r="P99" s="83"/>
-      <c r="Q99" s="83"/>
-    </row>
-    <row r="100" spans="2:21">
-      <c r="B100" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="83"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="83"/>
-      <c r="L100" s="83"/>
-      <c r="M100" s="83"/>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="83"/>
-      <c r="Q100" s="83"/>
-    </row>
-    <row r="101" spans="2:21">
-      <c r="B101" s="95" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" s="106">
-        <f>C98/$C$53</f>
-        <v>4.0353574173712534E-2</v>
-      </c>
-      <c r="D101" s="106">
-        <f>D98/$C$53</f>
-        <v>3.7279016141429672E-2</v>
-      </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="106">
-        <f>I98/$C$53</f>
-        <v>5.572636433512683E-2</v>
-      </c>
-      <c r="J101" s="83"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="83"/>
-      <c r="M101" s="83"/>
-      <c r="N101" s="83"/>
-      <c r="O101" s="83"/>
-      <c r="P101" s="83"/>
-      <c r="Q101" s="83"/>
-    </row>
-    <row r="102" spans="2:21">
-      <c r="B102" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C102" s="83"/>
-      <c r="D102" s="90">
-        <f xml:space="preserve"> (D101 - C101)/C101</f>
-        <v>-7.6190476190476253E-2</v>
-      </c>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="107">
-        <f xml:space="preserve"> (I101 - D101)/D101</f>
-        <v>0.49484536082474229</v>
-      </c>
-      <c r="J102" s="83"/>
-      <c r="K102" s="83"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-      <c r="N102" s="83"/>
-      <c r="O102" s="83"/>
-      <c r="P102" s="83"/>
-      <c r="Q102" s="83"/>
-    </row>
-    <row r="103" spans="2:21">
-      <c r="B103" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-      <c r="N103" s="83"/>
-      <c r="O103" s="83"/>
-      <c r="P103" s="83"/>
-      <c r="Q103" s="83"/>
-    </row>
-    <row r="104" spans="2:21">
-      <c r="B104" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="C104" s="97">
-        <f>C97-C98</f>
-        <v>55.199999999999974</v>
-      </c>
-      <c r="D104" s="97">
-        <f>D97-D98</f>
-        <v>57.399999999999977</v>
-      </c>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="97">
-        <f>I97-I98</f>
-        <v>94.660000000000011</v>
-      </c>
-      <c r="J104" s="83"/>
-      <c r="K104" s="83"/>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
-      <c r="N104" s="83"/>
-      <c r="O104" s="83"/>
-      <c r="P104" s="83"/>
-      <c r="Q104" s="83">
-        <f>(1+Q$91)*I104</f>
-        <v>100.14141377410471</v>
-      </c>
-      <c r="R104" s="83">
-        <f>(1+R$91)*Q104</f>
-        <v>93.971024708907279</v>
-      </c>
-      <c r="S104" s="83">
-        <f t="shared" ref="S104:U104" si="7">(1+S$91)*R104</f>
-        <v>97.347888693223155</v>
-      </c>
-      <c r="T104" s="83">
-        <f t="shared" si="7"/>
-        <v>101.58445859784686</v>
-      </c>
-      <c r="U104" s="83">
-        <f t="shared" si="7"/>
-        <v>107.06411464767461</v>
-      </c>
-    </row>
-    <row r="105" spans="2:21">
-      <c r="B105" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="83"/>
-      <c r="D105" s="107">
-        <f xml:space="preserve"> (D104 - C104)/C104</f>
-        <v>3.9855072463768189E-2</v>
-      </c>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="107">
-        <f xml:space="preserve"> (I104 - D104)/D104</f>
-        <v>0.64912891986062804</v>
-      </c>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-    </row>
-    <row r="106" spans="2:21">
-      <c r="B106" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
-      <c r="P106" s="83"/>
-      <c r="Q106" s="83"/>
-    </row>
-    <row r="107" spans="2:21">
-      <c r="B107" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="C107" s="98">
-        <f>C104/$C$53</f>
-        <v>0.21214450422751721</v>
-      </c>
-      <c r="D107" s="98">
-        <f>D104/$C$53</f>
-        <v>0.22059953881629507</v>
-      </c>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="98">
-        <f>I104/$C$53</f>
-        <v>0.36379707916986936</v>
-      </c>
-      <c r="J107" s="83"/>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
-      <c r="N107" s="83"/>
-      <c r="O107" s="83"/>
-      <c r="P107" s="83"/>
-      <c r="Q107" s="105">
-        <f>Q104/Q$53</f>
-        <v>0.25826416583478107</v>
-      </c>
-      <c r="R107" s="105">
-        <f>R104/R$53</f>
-        <v>0.23995125319452471</v>
-      </c>
-      <c r="S107" s="105">
-        <f>S104/S$53</f>
-        <v>0.241333922640558</v>
-      </c>
-      <c r="T107" s="105">
-        <f>T104/T$53</f>
-        <v>0.23758183928222337</v>
-      </c>
-      <c r="U107" s="105">
-        <f>U104/U$53</f>
-        <v>0.22972243016839367</v>
-      </c>
-    </row>
-    <row r="108" spans="2:21">
-      <c r="B108" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C108" s="83"/>
-      <c r="D108" s="90">
-        <f xml:space="preserve"> (D107 - C107)/C107</f>
-        <v>3.9855072463768119E-2</v>
-      </c>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="107">
-        <f xml:space="preserve"> (I107 - D107)/D107</f>
-        <v>0.64912891986062793</v>
-      </c>
-      <c r="J108" s="83"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="83"/>
-      <c r="N108" s="83"/>
-      <c r="O108" s="83"/>
-      <c r="P108" s="83"/>
-      <c r="Q108" s="83"/>
-    </row>
-    <row r="109" spans="2:21">
-      <c r="B109" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="83"/>
-      <c r="J109" s="83"/>
-      <c r="K109" s="83"/>
-      <c r="L109" s="83"/>
-      <c r="M109" s="83"/>
-      <c r="N109" s="83"/>
-      <c r="O109" s="83"/>
-      <c r="P109" s="83"/>
-      <c r="Q109" s="83"/>
-    </row>
-    <row r="110" spans="2:21">
-      <c r="B110" s="95"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="83"/>
-      <c r="J110" s="83"/>
-      <c r="K110" s="83"/>
-      <c r="L110" s="83"/>
-      <c r="M110" s="83"/>
-      <c r="N110" s="83"/>
-      <c r="O110" s="83"/>
-      <c r="P110" s="83"/>
-      <c r="Q110" s="83"/>
-    </row>
-    <row r="111" spans="2:21">
-      <c r="B111" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="83"/>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
-      <c r="M111" s="83"/>
-      <c r="N111" s="83"/>
-      <c r="O111" s="83"/>
-      <c r="P111" s="83"/>
-      <c r="Q111" s="83"/>
+      <c r="G111" s="92">
+        <f>G100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="92">
+        <f>H100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="92">
+        <f>I100*$W$65</f>
+        <v>2366.5000000000005</v>
+      </c>
+      <c r="J111" s="92">
+        <f>J100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="92">
+        <f>K100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="92">
+        <f>L100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="92">
+        <f>M100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="92">
+        <f>N100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="O111" s="92">
+        <f>O100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="P111" s="92">
+        <f>P100*$W$65</f>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="92">
+        <f>Q100*$W$65</f>
+        <v>2503.5353443526178</v>
+      </c>
+      <c r="R111" s="92">
+        <f>R100*$W$65</f>
+        <v>2349.275617722682</v>
+      </c>
+      <c r="S111" s="92">
+        <f>S100*$W$65</f>
+        <v>2433.697217330579</v>
+      </c>
+      <c r="T111" s="92">
+        <f>T100*$W$65</f>
+        <v>2539.6114649461715</v>
+      </c>
+      <c r="U111" s="130">
+        <f>U100*$W$65</f>
+        <v>2676.6028661918654</v>
+      </c>
     </row>
     <row r="112" spans="2:21">
-      <c r="B112" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="83"/>
-      <c r="L112" s="83"/>
-      <c r="M112" s="83"/>
-      <c r="N112" s="83"/>
-      <c r="O112" s="83"/>
-      <c r="P112" s="83"/>
-      <c r="Q112" s="83"/>
-    </row>
-    <row r="113" spans="2:26">
-      <c r="B113" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
-      <c r="N113" s="83"/>
-      <c r="O113" s="83"/>
-      <c r="P113" s="83"/>
-      <c r="Q113" s="83"/>
-    </row>
-    <row r="114" spans="2:26">
-      <c r="B114" s="95"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
-      <c r="N114" s="83"/>
-      <c r="O114" s="83"/>
-      <c r="P114" s="83"/>
-      <c r="Q114" s="83"/>
-      <c r="Y114" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z114" s="47" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="2:26">
-      <c r="B115" s="95"/>
-      <c r="C115" s="83"/>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="83"/>
-      <c r="L115" s="83"/>
-      <c r="M115" s="83"/>
-      <c r="N115" s="83"/>
-      <c r="O115" s="83"/>
-      <c r="P115" s="83"/>
-      <c r="Q115" s="83"/>
-      <c r="Y115" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z115" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="2:26">
-      <c r="B116" s="91"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="83"/>
-      <c r="L116" s="83"/>
-      <c r="M116" s="83"/>
-      <c r="N116" s="83"/>
-      <c r="O116" s="83"/>
-      <c r="P116" s="83"/>
-      <c r="Q116" s="83"/>
-      <c r="Y116" s="51">
-        <f>AVERAGE(D54,Q54,R54,S54,T54,U54)</f>
-        <v>5.0826287471176068E-2</v>
-      </c>
-      <c r="Z116" s="52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="2:26">
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="Y117" s="53">
-        <v>154.09</v>
-      </c>
-      <c r="Z117" s="52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" spans="2:26">
-      <c r="J118" s="83"/>
-      <c r="K118" s="83"/>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
-      <c r="N118" s="83"/>
-      <c r="O118" s="83"/>
-      <c r="P118" s="83"/>
-      <c r="Q118" s="83"/>
-      <c r="Y118" s="55">
-        <v>16.350000000000001</v>
-      </c>
-      <c r="Z118" s="52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="2:26">
-      <c r="B119" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119">
-        <f>C104*$Y$127</f>
-        <v>1379.9999999999993</v>
-      </c>
-      <c r="D119">
-        <f t="shared" ref="D119:U119" si="8">D104*$Y$127</f>
-        <v>1434.9999999999995</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="8"/>
-        <v>2366.5000000000005</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P119">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q119">
-        <f t="shared" si="8"/>
-        <v>2503.5353443526178</v>
-      </c>
-      <c r="R119">
-        <f t="shared" si="8"/>
-        <v>2349.275617722682</v>
-      </c>
-      <c r="S119">
-        <f t="shared" si="8"/>
-        <v>2433.697217330579</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="8"/>
-        <v>2539.6114649461715</v>
-      </c>
-      <c r="U119">
-        <f t="shared" si="8"/>
-        <v>2676.6028661918654</v>
-      </c>
-      <c r="Y119" s="51">
-        <v>0.01</v>
-      </c>
-      <c r="Z119" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="2:26">
-      <c r="B120" s="29" t="s">
+      <c r="B112" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="C120">
+      <c r="C112" s="92">
         <v>48.8</v>
       </c>
-      <c r="D120">
-        <f>1.07*C120</f>
+      <c r="D112" s="92">
+        <f>1.07*C112</f>
         <v>52.216000000000001</v>
       </c>
-      <c r="E120">
-        <f t="shared" ref="E120:U120" si="9">1.1*D120</f>
+      <c r="E112" s="92">
+        <f t="shared" ref="E112:P112" si="15">1.1*D112</f>
         <v>57.437600000000003</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="9"/>
+      <c r="F112" s="92">
+        <f t="shared" si="15"/>
         <v>63.181360000000012</v>
       </c>
-      <c r="G120">
-        <f t="shared" si="9"/>
+      <c r="G112" s="92">
+        <f t="shared" si="15"/>
         <v>69.499496000000022</v>
       </c>
-      <c r="H120">
-        <f t="shared" si="9"/>
+      <c r="H112" s="92">
+        <f t="shared" si="15"/>
         <v>76.449445600000033</v>
       </c>
-      <c r="I120">
-        <f>1.07*D120</f>
+      <c r="I112" s="92">
+        <f>1.07*D112</f>
         <v>55.871120000000005</v>
       </c>
-      <c r="J120">
-        <f t="shared" si="9"/>
+      <c r="J112" s="92">
+        <f t="shared" si="15"/>
         <v>61.45823200000001</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="9"/>
+      <c r="K112" s="92">
+        <f t="shared" si="15"/>
         <v>67.604055200000019</v>
       </c>
-      <c r="L120">
-        <f t="shared" si="9"/>
+      <c r="L112" s="92">
+        <f t="shared" si="15"/>
         <v>74.364460720000025</v>
       </c>
-      <c r="M120">
-        <f t="shared" si="9"/>
+      <c r="M112" s="92">
+        <f t="shared" si="15"/>
         <v>81.800906792000035</v>
       </c>
-      <c r="N120">
-        <f t="shared" si="9"/>
+      <c r="N112" s="92">
+        <f t="shared" si="15"/>
         <v>89.980997471200041</v>
       </c>
-      <c r="O120">
-        <f t="shared" si="9"/>
+      <c r="O112" s="92">
+        <f t="shared" si="15"/>
         <v>98.979097218320049</v>
       </c>
-      <c r="P120">
-        <f t="shared" si="9"/>
+      <c r="P112" s="92">
+        <f t="shared" si="15"/>
         <v>108.87700694015206</v>
       </c>
-      <c r="Q120">
-        <f t="shared" ref="Q120:S120" si="10">1.07*I120</f>
+      <c r="Q112" s="92">
+        <f>1.07*I112</f>
         <v>59.78209840000001</v>
       </c>
-      <c r="R120">
-        <f>1.07*Q120</f>
+      <c r="R112" s="92">
+        <f>1.07*Q112</f>
         <v>63.966845288000016</v>
       </c>
-      <c r="S120">
-        <f t="shared" ref="S120:U120" si="11">1.07*R120</f>
+      <c r="S112" s="92">
+        <f t="shared" ref="S112:U112" si="16">1.07*R112</f>
         <v>68.444524458160018</v>
       </c>
-      <c r="T120">
-        <f t="shared" si="11"/>
+      <c r="T112" s="92">
+        <f t="shared" si="16"/>
         <v>73.235641170231219</v>
       </c>
-      <c r="U120">
-        <f t="shared" si="11"/>
+      <c r="U112" s="130">
+        <f t="shared" si="16"/>
         <v>78.362136052147406</v>
       </c>
-      <c r="Y120" s="57">
-        <f>Y118*Y117</f>
-        <v>2519.3715000000002</v>
-      </c>
-      <c r="Z120" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="2:26">
-      <c r="B121" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J121" s="83"/>
-      <c r="K121" s="83"/>
-      <c r="L121" s="83"/>
+    </row>
+    <row r="113" spans="2:22">
+      <c r="B113" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="94"/>
+      <c r="D113" s="94"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="94"/>
+      <c r="G113" s="94"/>
+      <c r="H113" s="94"/>
+      <c r="I113" s="94"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="93"/>
+      <c r="L113" s="93"/>
+      <c r="M113" s="93"/>
+      <c r="N113" s="93"/>
+      <c r="O113" s="93"/>
+      <c r="P113" s="93"/>
+      <c r="Q113" s="132">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R113" s="94">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S113" s="133">
+        <f>16.4</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="T113" s="133">
+        <f t="shared" ref="T113:U113" si="17">S113*(1-0.05)</f>
+        <v>15.579999999999998</v>
+      </c>
+      <c r="U113" s="134">
+        <f t="shared" si="17"/>
+        <v>14.800999999999998</v>
+      </c>
+      <c r="V113" s="155" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="2:22">
+      <c r="B114" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="94"/>
+      <c r="D114" s="94"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="93"/>
+      <c r="K114" s="93"/>
+      <c r="L114" s="93"/>
+      <c r="M114" s="93"/>
+      <c r="N114" s="93"/>
+      <c r="O114" s="93"/>
+      <c r="P114" s="93"/>
+      <c r="Q114" s="92">
+        <f>Q111/Q113</f>
+        <v>152.65459416784256</v>
+      </c>
+      <c r="R114" s="92">
+        <f t="shared" ref="R114:U114" si="18">R111/R113</f>
+        <v>143.24851327577329</v>
+      </c>
+      <c r="S114" s="92">
+        <f t="shared" si="18"/>
+        <v>148.39617178844995</v>
+      </c>
+      <c r="T114" s="92">
+        <f t="shared" si="18"/>
+        <v>163.00458696702</v>
+      </c>
+      <c r="U114" s="130">
+        <f t="shared" si="18"/>
+        <v>180.83932613957609</v>
+      </c>
+    </row>
+    <row r="115" spans="2:22">
+      <c r="B115" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="94"/>
+      <c r="D115" s="94"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="94"/>
+      <c r="G115" s="94"/>
+      <c r="H115" s="94"/>
+      <c r="I115" s="94"/>
+      <c r="J115" s="93"/>
+      <c r="K115" s="93"/>
+      <c r="L115" s="93"/>
+      <c r="M115" s="93"/>
+      <c r="N115" s="93"/>
+      <c r="O115" s="93"/>
+      <c r="P115" s="93"/>
+      <c r="Q115" s="92">
+        <f>(PV($W$66,3,,T111)*-1)</f>
+        <v>1669.8357622724893</v>
+      </c>
+      <c r="R115" s="92"/>
+      <c r="S115" s="92"/>
+      <c r="T115" s="92"/>
+      <c r="U115" s="130"/>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" s="94"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="94"/>
+      <c r="F116" s="94"/>
+      <c r="G116" s="94"/>
+      <c r="H116" s="94"/>
+      <c r="I116" s="94"/>
+      <c r="J116" s="93"/>
+      <c r="K116" s="93"/>
+      <c r="L116" s="93"/>
+      <c r="M116" s="93"/>
+      <c r="N116" s="93"/>
+      <c r="O116" s="93"/>
+      <c r="P116" s="93"/>
+      <c r="Q116" s="92">
+        <f>(PV($W$66,3,,T112)*-1)</f>
+        <v>48.153622861991444</v>
+      </c>
+      <c r="R116" s="94"/>
+      <c r="S116" s="94"/>
+      <c r="T116" s="94"/>
+      <c r="U116" s="111"/>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="94"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="94"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="94"/>
+      <c r="I117" s="94"/>
+      <c r="J117" s="93"/>
+      <c r="K117" s="93"/>
+      <c r="L117" s="93"/>
+      <c r="M117" s="93"/>
+      <c r="N117" s="93"/>
+      <c r="O117" s="93"/>
+      <c r="P117" s="93"/>
+      <c r="Q117" s="92">
+        <f>Q116+Q115</f>
+        <v>1717.9893851344807</v>
+      </c>
+      <c r="R117" s="94"/>
+      <c r="S117" s="94"/>
+      <c r="T117" s="94"/>
+      <c r="U117" s="111"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="117"/>
+      <c r="D118" s="117"/>
+      <c r="E118" s="117"/>
+      <c r="F118" s="117"/>
+      <c r="G118" s="117"/>
+      <c r="H118" s="117"/>
+      <c r="I118" s="117"/>
+      <c r="J118" s="118"/>
+      <c r="K118" s="118"/>
+      <c r="L118" s="118"/>
+      <c r="M118" s="118"/>
+      <c r="N118" s="118"/>
+      <c r="O118" s="118"/>
+      <c r="P118" s="118"/>
+      <c r="Q118" s="120">
+        <f>Q117/Q113</f>
+        <v>104.7554503130781</v>
+      </c>
+      <c r="R118" s="117"/>
+      <c r="S118" s="117"/>
+      <c r="T118" s="117"/>
+      <c r="U118" s="119"/>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="K119" s="83"/>
+      <c r="L119" s="83"/>
+      <c r="M119" s="83"/>
+      <c r="N119" s="83"/>
+      <c r="O119" s="83"/>
+      <c r="P119" s="83"/>
+      <c r="Q119" s="83"/>
+    </row>
+    <row r="120" spans="2:22">
+      <c r="K120" s="83"/>
+      <c r="L120" s="83"/>
+      <c r="M120" s="83"/>
+      <c r="N120" s="83"/>
+      <c r="O120" s="83"/>
+      <c r="P120" s="83"/>
+      <c r="Q120" s="83"/>
+    </row>
+    <row r="121" spans="2:22">
       <c r="M121" s="83"/>
       <c r="N121" s="83"/>
       <c r="O121" s="83"/>
       <c r="P121" s="83"/>
-      <c r="Q121" s="110">
-        <f>Y118</f>
-        <v>16.350000000000001</v>
-      </c>
-      <c r="R121">
-        <f>Q121*(1+$Y$119)</f>
-        <v>16.513500000000001</v>
-      </c>
-      <c r="S121">
-        <f t="shared" ref="S121:U121" si="12">R121*(1+$Y$119)</f>
-        <v>16.678635</v>
-      </c>
-      <c r="T121">
-        <f t="shared" si="12"/>
-        <v>16.845421349999999</v>
-      </c>
-      <c r="U121">
-        <f t="shared" si="12"/>
-        <v>17.013875563499997</v>
-      </c>
-      <c r="Y121" s="57">
-        <v>45</v>
-      </c>
-      <c r="Z121" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26">
-      <c r="B122" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J122" s="83"/>
-      <c r="K122" s="83"/>
-      <c r="L122" s="83"/>
-      <c r="M122" s="83"/>
-      <c r="N122" s="83"/>
-      <c r="O122" s="83"/>
-      <c r="P122" s="83"/>
-      <c r="Q122" s="83">
-        <f>Q119/Q121</f>
-        <v>153.12142778915091</v>
-      </c>
-      <c r="R122" s="83">
-        <f t="shared" ref="R122:U122" si="13">R119/R121</f>
-        <v>142.26394269674398</v>
-      </c>
-      <c r="S122" s="83">
-        <f t="shared" si="13"/>
-        <v>145.91705000622528</v>
-      </c>
-      <c r="T122" s="83">
-        <f t="shared" si="13"/>
-        <v>150.75974724408849</v>
-      </c>
-      <c r="U122" s="83">
-        <f t="shared" si="13"/>
-        <v>157.31882228726315</v>
-      </c>
-      <c r="Y122" s="57"/>
-      <c r="Z122" s="52"/>
-    </row>
-    <row r="123" spans="2:26">
-      <c r="B123" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J123" s="83"/>
-      <c r="K123" s="83"/>
-      <c r="L123" s="83"/>
-      <c r="M123" s="83"/>
-      <c r="N123" s="83"/>
-      <c r="O123" s="83"/>
-      <c r="P123" s="83"/>
-      <c r="Q123" s="96">
-        <f>(PV($Y$128,3,,T119)*-1)</f>
-        <v>1669.8357622724893</v>
-      </c>
-      <c r="Y123" s="57"/>
-      <c r="Z123" s="52"/>
-    </row>
-    <row r="124" spans="2:26">
-      <c r="B124" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="J124" s="83"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="83"/>
-      <c r="M124" s="83"/>
-      <c r="N124" s="83"/>
-      <c r="O124" s="83"/>
-      <c r="P124" s="83"/>
-      <c r="Q124" s="96">
-        <f>(PV($Y$128,3,,T120)*-1)</f>
-        <v>48.153622861991444</v>
-      </c>
-      <c r="Y124" s="57">
-        <v>15.6</v>
-      </c>
-      <c r="Z124" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26">
-      <c r="B125" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="J125" s="83"/>
-      <c r="K125" s="83"/>
-      <c r="L125" s="83"/>
-      <c r="M125" s="83"/>
-      <c r="N125" s="83"/>
-      <c r="O125" s="83"/>
-      <c r="P125" s="83"/>
-      <c r="Q125" s="111">
-        <f>Q123+Q124</f>
-        <v>1717.9893851344807</v>
-      </c>
-      <c r="Y125" s="51">
-        <v>0.35</v>
-      </c>
-      <c r="Z125" s="52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26">
-      <c r="B126" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="J126" s="83"/>
-      <c r="K126" s="83"/>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83"/>
-      <c r="N126" s="83"/>
-      <c r="O126" s="83"/>
-      <c r="P126" s="83"/>
-      <c r="Q126" s="112">
-        <f>Q125/Q121</f>
-        <v>105.07580337213949</v>
-      </c>
-      <c r="Y126" s="62" t="e">
-        <f>(Y134*Y118)/T114</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z126" s="52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26">
-      <c r="J127" s="83"/>
-      <c r="K127" s="83"/>
-      <c r="L127" s="83"/>
-      <c r="M127" s="83"/>
-      <c r="N127" s="83"/>
-      <c r="O127" s="83"/>
-      <c r="P127" s="83"/>
-      <c r="Q127" s="83"/>
-      <c r="Y127" s="63">
-        <v>25</v>
-      </c>
-      <c r="Z127" s="52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26">
-      <c r="K128" s="83"/>
-      <c r="L128" s="83"/>
-      <c r="M128" s="83"/>
-      <c r="N128" s="83"/>
-      <c r="O128" s="83"/>
-      <c r="P128" s="83"/>
-      <c r="Q128" s="83"/>
-      <c r="Y128" s="51">
-        <v>0.15</v>
-      </c>
-      <c r="Z128" s="52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="129" spans="11:26">
-      <c r="K129" s="83"/>
-      <c r="L129" s="83"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="83"/>
-      <c r="O129" s="83"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="83"/>
-      <c r="Y129" s="54"/>
-      <c r="Z129" s="20"/>
-    </row>
-    <row r="130" spans="11:26">
-      <c r="M130" s="83"/>
-      <c r="N130" s="83"/>
-      <c r="O130" s="83"/>
-      <c r="P130" s="83"/>
-      <c r="Q130" s="83"/>
-      <c r="Y130" s="54"/>
-      <c r="Z130" s="20"/>
-    </row>
-    <row r="131" spans="11:26">
-      <c r="Y131" s="54"/>
-      <c r="Z131" s="20"/>
-    </row>
-    <row r="132" spans="11:26">
-      <c r="Y132" s="54"/>
-      <c r="Z132" s="20"/>
-    </row>
-    <row r="133" spans="11:26">
-      <c r="Y133" s="54"/>
-      <c r="Z133" s="20"/>
-    </row>
-    <row r="134" spans="11:26">
-      <c r="Y134" s="53">
-        <f>Q126</f>
-        <v>105.07580337213949</v>
-      </c>
-      <c r="Z134" s="52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="11:26">
-      <c r="Y135" s="66">
-        <f>(Y134-Y117)/Y117</f>
-        <v>-0.31808810842923302</v>
-      </c>
-      <c r="Z135" s="67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C154" s="83"/>
-      <c r="D154" s="83"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="83"/>
-      <c r="H154" s="83"/>
-      <c r="I154" s="83"/>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="89" t="s">
+      <c r="Q121" s="83"/>
+    </row>
+    <row r="127" spans="2:22">
+      <c r="B127" s="156" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="83"/>
+      <c r="D127" s="83"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="83"/>
+      <c r="G127" s="83"/>
+      <c r="H127" s="83"/>
+      <c r="I127" s="83"/>
+    </row>
+    <row r="128" spans="2:22">
+      <c r="B128" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="C155" s="83"/>
-      <c r="D155" s="83"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="83"/>
-      <c r="H155" s="83"/>
-      <c r="I155" s="83"/>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="89" t="s">
+      <c r="C128" s="25">
+        <v>116.9</v>
+      </c>
+      <c r="D128" s="25">
+        <v>124.6</v>
+      </c>
+      <c r="E128" s="105"/>
+      <c r="F128" s="105"/>
+      <c r="G128" s="105"/>
+      <c r="H128" s="105"/>
+      <c r="I128" s="157">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="J128" s="155" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
+      <c r="B129" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C156" s="83"/>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="89" t="s">
+      <c r="C129" s="136"/>
+      <c r="D129" s="95">
+        <f xml:space="preserve"> (D128 - C128)/C128</f>
+        <v>6.5868263473053787E-2</v>
+      </c>
+      <c r="E129" s="93"/>
+      <c r="F129" s="93"/>
+      <c r="G129" s="93"/>
+      <c r="H129" s="93"/>
+      <c r="I129" s="158">
+        <f xml:space="preserve"> (I128 - D128)/D128</f>
+        <v>0.23033707865168554</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
+      <c r="B130" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C157" s="83"/>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="83"/>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="89" t="s">
+      <c r="C130" s="136"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="93"/>
+      <c r="F130" s="93"/>
+      <c r="G130" s="93"/>
+      <c r="H130" s="93"/>
+      <c r="I130" s="159"/>
+    </row>
+    <row r="131" spans="2:9">
+      <c r="B131" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="C158" s="83"/>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="B159" s="89" t="s">
+      <c r="C131" s="136">
+        <v>60.3</v>
+      </c>
+      <c r="D131" s="136">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E131" s="93"/>
+      <c r="F131" s="93"/>
+      <c r="G131" s="93"/>
+      <c r="H131" s="93"/>
+      <c r="I131" s="159">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
+      <c r="B132" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C159" s="83"/>
-      <c r="D159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="83"/>
-      <c r="H159" s="83"/>
-      <c r="I159" s="83"/>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="89" t="s">
+      <c r="C132" s="136"/>
+      <c r="D132" s="95">
+        <f xml:space="preserve"> (D131 - C131)/C131</f>
+        <v>0.13764510779436148</v>
+      </c>
+      <c r="E132" s="93"/>
+      <c r="F132" s="93"/>
+      <c r="G132" s="93"/>
+      <c r="H132" s="93"/>
+      <c r="I132" s="158">
+        <f xml:space="preserve"> (I131 - D131)/D131</f>
+        <v>0.30174927113702632</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
+      <c r="B133" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C160" s="31">
-        <v>116.9</v>
-      </c>
-      <c r="D160" s="31">
-        <v>124.6</v>
-      </c>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
-      <c r="G160" s="83"/>
-      <c r="H160" s="83"/>
-      <c r="I160" s="31">
-        <v>153.30000000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="89" t="s">
+      <c r="C133" s="136"/>
+      <c r="D133" s="136"/>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="94"/>
+      <c r="I133" s="159"/>
+    </row>
+    <row r="134" spans="2:9">
+      <c r="B134" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="90">
-        <f xml:space="preserve"> (D160 - C160)/C160</f>
-        <v>6.5868263473053787E-2</v>
-      </c>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="83"/>
-      <c r="H161" s="83"/>
-      <c r="I161" s="90">
-        <f xml:space="preserve"> (I160 - D160)/D160</f>
-        <v>0.23033707865168554</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="89" t="s">
+      <c r="C134" s="136">
+        <v>43.7</v>
+      </c>
+      <c r="D134" s="136">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E134" s="94"/>
+      <c r="F134" s="94"/>
+      <c r="G134" s="94"/>
+      <c r="H134" s="94"/>
+      <c r="I134" s="159">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
+      <c r="B135" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="31"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="83"/>
-      <c r="H162" s="83"/>
-      <c r="I162" s="31"/>
-    </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="89" t="s">
+      <c r="C135" s="136"/>
+      <c r="D135" s="95">
+        <f xml:space="preserve"> (D134 - C134)/C134</f>
+        <v>-7.7803203661327355E-2</v>
+      </c>
+      <c r="E135" s="94"/>
+      <c r="F135" s="94"/>
+      <c r="G135" s="94"/>
+      <c r="H135" s="94"/>
+      <c r="I135" s="158">
+        <f xml:space="preserve"> (I134 - D134)/D134</f>
+        <v>0.6972704714640201</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
+      <c r="B136" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C163" s="31">
-        <v>60.3</v>
-      </c>
-      <c r="D163" s="31">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="E163" s="83"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="83"/>
-      <c r="H163" s="83"/>
-      <c r="I163" s="31">
-        <v>89.3</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="89" t="s">
+      <c r="C136" s="136"/>
+      <c r="D136" s="136"/>
+      <c r="E136" s="94"/>
+      <c r="F136" s="94"/>
+      <c r="G136" s="94"/>
+      <c r="H136" s="94"/>
+      <c r="I136" s="159"/>
+    </row>
+    <row r="137" spans="2:9">
+      <c r="B137" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="C164" s="31"/>
-      <c r="D164" s="90">
-        <f xml:space="preserve"> (D163 - C163)/C163</f>
-        <v>0.13764510779436148</v>
-      </c>
-      <c r="E164" s="83"/>
-      <c r="F164" s="83"/>
-      <c r="G164" s="83"/>
-      <c r="H164" s="83"/>
-      <c r="I164" s="90">
-        <f xml:space="preserve"> (I163 - D163)/D163</f>
-        <v>0.30174927113702632</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="89" t="s">
+      <c r="C137" s="136">
+        <v>21.5</v>
+      </c>
+      <c r="D137" s="136">
+        <v>21.4</v>
+      </c>
+      <c r="E137" s="94"/>
+      <c r="F137" s="94"/>
+      <c r="G137" s="94"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="159">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
+      <c r="B138" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="I165" s="31"/>
-    </row>
-    <row r="166" spans="2:9">
-      <c r="B166" s="89" t="s">
+      <c r="C138" s="136"/>
+      <c r="D138" s="95">
+        <f xml:space="preserve"> (D137 - C137)/C137</f>
+        <v>-4.6511627906977403E-3</v>
+      </c>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="94"/>
+      <c r="I138" s="158">
+        <f xml:space="preserve"> (I137 - D137)/D137</f>
+        <v>0.33177570093457953</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
+      <c r="B139" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C166" s="31">
-        <v>43.7</v>
-      </c>
-      <c r="D166" s="31">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="I166" s="31">
-        <v>68.400000000000006</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="B167" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C167" s="31"/>
-      <c r="D167" s="90">
-        <f xml:space="preserve"> (D166 - C166)/C166</f>
-        <v>-7.7803203661327355E-2</v>
-      </c>
-      <c r="I167" s="90">
-        <f xml:space="preserve"> (I166 - D166)/D166</f>
-        <v>0.6972704714640201</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="89" t="s">
+      <c r="C139" s="136"/>
+      <c r="D139" s="136"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="159"/>
+    </row>
+    <row r="140" spans="2:9">
+      <c r="B140" s="110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="136">
+        <v>17.8</v>
+      </c>
+      <c r="D140" s="136">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E140" s="94"/>
+      <c r="F140" s="94"/>
+      <c r="G140" s="94"/>
+      <c r="H140" s="94"/>
+      <c r="I140" s="159">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
+      <c r="B141" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="C168" s="31"/>
-      <c r="D168" s="31"/>
-      <c r="I168" s="31"/>
-    </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="89" t="s">
+      <c r="C141" s="136"/>
+      <c r="D141" s="95">
+        <f xml:space="preserve"> (D140 - C140)/C140</f>
+        <v>0.10112359550561802</v>
+      </c>
+      <c r="E141" s="94"/>
+      <c r="F141" s="94"/>
+      <c r="G141" s="94"/>
+      <c r="H141" s="94"/>
+      <c r="I141" s="158">
+        <f xml:space="preserve"> (I140 - D140)/D140</f>
+        <v>0.34693877551020391</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
+      <c r="B142" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="C169" s="31">
-        <v>21.5</v>
-      </c>
-      <c r="D169" s="31">
-        <v>21.4</v>
-      </c>
-      <c r="I169" s="31">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9">
-      <c r="B170" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="C170" s="31"/>
-      <c r="D170" s="90">
-        <f xml:space="preserve"> (D169 - C169)/C169</f>
-        <v>-4.6511627906977403E-3</v>
-      </c>
-      <c r="I170" s="90">
-        <f xml:space="preserve"> (I169 - D169)/D169</f>
-        <v>0.33177570093457953</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9">
-      <c r="C171" s="31"/>
-      <c r="D171" s="31"/>
-      <c r="I171" s="31"/>
-    </row>
-    <row r="172" spans="2:9">
-      <c r="C172" s="31">
-        <v>17.8</v>
-      </c>
-      <c r="D172" s="31">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="I172" s="31">
-        <v>26.4</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9">
-      <c r="C173" s="31"/>
-      <c r="D173" s="90">
-        <f xml:space="preserve"> (D172 - C172)/C172</f>
-        <v>0.10112359550561802</v>
-      </c>
-      <c r="I173" s="90">
-        <f xml:space="preserve"> (I172 - D172)/D172</f>
-        <v>0.34693877551020391</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9">
-      <c r="C174" s="31"/>
-      <c r="I174" s="31"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="117"/>
+      <c r="G142" s="117"/>
+      <c r="H142" s="117"/>
+      <c r="I142" s="119"/>
+    </row>
+    <row r="143" spans="2:9">
+      <c r="B143" s="87"/>
+    </row>
+    <row r="147" spans="3:9">
+      <c r="C147" s="31"/>
+      <c r="I147" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="H26 H23 M53" formula="1"/>
+    <ignoredError sqref="H28 H25 M52" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8663,8 +9345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF32D2-0C98-3A4B-A2DF-3374752AD328}">
   <dimension ref="B1:AT1035"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" zoomScale="92" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AC63" sqref="AC63"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="75" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8769,8 +9451,8 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="93"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
       <c r="AJ2" s="6"/>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
@@ -8787,7 +9469,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="7">
         <f ca="1">TODAY()</f>
-        <v>44766</v>
+        <v>44768</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
@@ -11631,8 +12313,8 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="54"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="92"/>
-      <c r="AI46" s="93"/>
+      <c r="AH46" s="89"/>
+      <c r="AI46" s="90"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="5"/>
       <c r="AL46" s="56"/>
@@ -11680,8 +12362,8 @@
       <c r="AE47" s="20"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="94"/>
-      <c r="AI47" s="93"/>
+      <c r="AH47" s="91"/>
+      <c r="AI47" s="90"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
@@ -11763,8 +12445,8 @@
       <c r="AE48" s="20"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="94"/>
-      <c r="AI48" s="93"/>
+      <c r="AH48" s="91"/>
+      <c r="AI48" s="90"/>
       <c r="AJ48" s="6"/>
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
@@ -11777,7 +12459,7 @@
       <c r="AS48" s="5"/>
       <c r="AT48" s="5"/>
     </row>
-    <row r="49" spans="4:46" ht="16" customHeight="1">
+    <row r="49" spans="2:46" ht="16" customHeight="1">
       <c r="D49" s="2"/>
       <c r="E49" s="29" t="s">
         <v>43</v>
@@ -11863,7 +12545,7 @@
       <c r="AS49" s="58"/>
       <c r="AT49" s="58"/>
     </row>
-    <row r="50" spans="4:46" ht="15.75" customHeight="1">
+    <row r="50" spans="2:46" ht="15.75" customHeight="1">
       <c r="D50" s="2"/>
       <c r="E50" s="29"/>
       <c r="F50" s="32"/>
@@ -11894,8 +12576,8 @@
       <c r="AE50" s="20"/>
       <c r="AF50" s="2"/>
       <c r="AG50" s="2"/>
-      <c r="AH50" s="92"/>
-      <c r="AI50" s="92"/>
+      <c r="AH50" s="89"/>
+      <c r="AI50" s="89"/>
       <c r="AJ50" s="6"/>
       <c r="AK50" s="5"/>
       <c r="AL50" s="5"/>
@@ -11908,7 +12590,7 @@
       <c r="AS50" s="5"/>
       <c r="AT50" s="5"/>
     </row>
-    <row r="51" spans="4:46" ht="15.75" customHeight="1">
+    <row r="51" spans="2:46" ht="15.75" customHeight="1">
       <c r="D51" s="2"/>
       <c r="E51" s="29"/>
       <c r="F51" s="30"/>
@@ -11953,7 +12635,7 @@
       <c r="AS51" s="5"/>
       <c r="AT51" s="5"/>
     </row>
-    <row r="52" spans="4:46" ht="14.25" customHeight="1">
+    <row r="52" spans="2:46" ht="14.25" customHeight="1">
       <c r="D52" s="2"/>
       <c r="E52" s="29" t="s">
         <v>45</v>
@@ -11981,11 +12663,11 @@
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32">
-        <f t="shared" ref="S52:AA52" si="31">S53/S42</f>
+        <f>S53/S42</f>
         <v>1.7272727272727259E-2</v>
       </c>
       <c r="T52" s="32">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="S52:AA52" si="31">T53/T42</f>
         <v>0.11684684684684686</v>
       </c>
       <c r="U52" s="32">
@@ -12040,7 +12722,7 @@
       <c r="AS52" s="5"/>
       <c r="AT52" s="5"/>
     </row>
-    <row r="53" spans="4:46" ht="15.75" customHeight="1">
+    <row r="53" spans="2:46" ht="15.75" customHeight="1">
       <c r="D53" s="2"/>
       <c r="E53" s="29" t="s">
         <v>47</v>
@@ -12076,11 +12758,11 @@
         <v>7.782</v>
       </c>
       <c r="U53" s="31">
-        <f t="shared" ref="U53:W53" si="32">U45-U49</f>
+        <f>U45-U49</f>
         <v>8</v>
       </c>
       <c r="V53" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="U53:W53" si="32">V45-V49</f>
         <v>8.5049999999999972</v>
       </c>
       <c r="W53" s="31">
@@ -12127,7 +12809,7 @@
       <c r="AS53" s="5"/>
       <c r="AT53" s="5"/>
     </row>
-    <row r="54" spans="4:46" ht="15.75" customHeight="1">
+    <row r="54" spans="2:46" ht="15.75" customHeight="1">
       <c r="D54" s="2"/>
       <c r="E54" s="29" t="s">
         <v>49</v>
@@ -12195,7 +12877,7 @@
       <c r="AS54" s="5"/>
       <c r="AT54" s="5"/>
     </row>
-    <row r="55" spans="4:46" ht="15.75" customHeight="1">
+    <row r="55" spans="2:46" ht="15.75" customHeight="1">
       <c r="D55" s="2"/>
       <c r="E55" s="29" t="s">
         <v>51</v>
@@ -12223,7 +12905,7 @@
       <c r="Q55" s="30"/>
       <c r="R55" s="30"/>
       <c r="S55" s="30">
-        <f t="shared" si="33"/>
+        <f>S53-S54</f>
         <v>3.7999999999999972</v>
       </c>
       <c r="T55" s="30"/>
@@ -12231,7 +12913,7 @@
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30">
-        <f t="shared" si="33"/>
+        <f>X53-X54</f>
         <v>34.857999999999997</v>
       </c>
       <c r="Y55" s="30">
@@ -12270,7 +12952,7 @@
       <c r="AS55" s="5"/>
       <c r="AT55" s="5"/>
     </row>
-    <row r="56" spans="4:46" ht="15.75" customHeight="1">
+    <row r="56" spans="2:46" ht="15.75" customHeight="1">
       <c r="D56" s="2"/>
       <c r="E56" s="29" t="s">
         <v>53</v>
@@ -12345,7 +13027,7 @@
       <c r="AS56" s="5"/>
       <c r="AT56" s="5"/>
     </row>
-    <row r="57" spans="4:46" ht="15.75" customHeight="1">
+    <row r="57" spans="2:46" ht="15.75" customHeight="1">
       <c r="D57" s="2"/>
       <c r="E57" s="29" t="s">
         <v>55</v>
@@ -12415,7 +13097,7 @@
       <c r="AS57" s="5"/>
       <c r="AT57" s="5"/>
     </row>
-    <row r="58" spans="4:46" ht="15.75" customHeight="1">
+    <row r="58" spans="2:46" ht="15.75" customHeight="1">
       <c r="D58" s="2"/>
       <c r="E58" s="29" t="s">
         <v>56</v>
@@ -12483,7 +13165,8 @@
       <c r="AS58" s="5"/>
       <c r="AT58" s="5"/>
     </row>
-    <row r="59" spans="4:46" ht="15.75" customHeight="1">
+    <row r="59" spans="2:46" ht="15.75" customHeight="1">
+      <c r="B59" s="121"/>
       <c r="D59" s="2"/>
       <c r="E59" s="29" t="s">
         <v>57</v>
@@ -12537,8 +13220,8 @@
       <c r="AE59" s="20"/>
       <c r="AF59" s="2"/>
       <c r="AG59" s="2"/>
-      <c r="AH59" s="92"/>
-      <c r="AI59" s="93"/>
+      <c r="AH59" s="89"/>
+      <c r="AI59" s="90"/>
       <c r="AJ59" s="6"/>
       <c r="AK59" s="5"/>
       <c r="AL59" s="5"/>
@@ -12551,7 +13234,7 @@
       <c r="AS59" s="5"/>
       <c r="AT59" s="5"/>
     </row>
-    <row r="60" spans="4:46" ht="15.75" hidden="1" customHeight="1">
+    <row r="60" spans="2:46" ht="15.75" hidden="1" customHeight="1">
       <c r="D60" s="2"/>
       <c r="E60" s="29" t="s">
         <v>58</v>
@@ -12602,7 +13285,7 @@
       <c r="AS60" s="5"/>
       <c r="AT60" s="5"/>
     </row>
-    <row r="61" spans="4:46" ht="15.75" hidden="1" customHeight="1">
+    <row r="61" spans="2:46" ht="15.75" hidden="1" customHeight="1">
       <c r="D61" s="2"/>
       <c r="E61" s="29" t="s">
         <v>59</v>
@@ -12655,7 +13338,7 @@
       <c r="AS61" s="5"/>
       <c r="AT61" s="5"/>
     </row>
-    <row r="62" spans="4:46" ht="15.75" customHeight="1">
+    <row r="62" spans="2:46" ht="15.75" customHeight="1">
       <c r="D62" s="2"/>
       <c r="E62" s="29" t="s">
         <v>60</v>
@@ -12722,7 +13405,7 @@
       <c r="AS62" s="5"/>
       <c r="AT62" s="5"/>
     </row>
-    <row r="63" spans="4:46" ht="15.75" customHeight="1">
+    <row r="63" spans="2:46" ht="15.75" customHeight="1">
       <c r="D63" s="2"/>
       <c r="E63" s="29" t="s">
         <v>61</v>
@@ -12789,7 +13472,7 @@
       <c r="AS63" s="5"/>
       <c r="AT63" s="5"/>
     </row>
-    <row r="64" spans="4:46" ht="15.75" customHeight="1">
+    <row r="64" spans="2:46" ht="15.75" customHeight="1">
       <c r="D64" s="2"/>
       <c r="E64" s="29" t="s">
         <v>63</v>
